--- a/TESTING/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a4/p2_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,31 +418,31 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.228279748733995e-05</v>
+        <v>8.113268794593698e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>1.241681971309381e-06</v>
+        <v>7.576244367394592e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.183298200057985e-07</v>
+        <v>8.35596833238748e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>3.876469153655275e-07</v>
+        <v>2.557230444141357e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>7.044000356781929e-07</v>
+        <v>4.636223489310705e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>8.630947697774261e-07</v>
+        <v>5.811768190191004e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>5.598970712792563</v>
+        <v>18.18400625646773</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2311658798997249</v>
+        <v>0.001135979746663432</v>
       </c>
       <c r="J2" t="n">
-        <v>1.399742678198141</v>
+        <v>4.546001564116932</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>1.900276150155703e-05</v>
+        <v>1.255631762718978e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>5.274648043145156e-06</v>
+        <v>3.749871273806077e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.762776546873896e-06</v>
+        <v>1.502740592286939e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>5.772910591198055e-07</v>
+        <v>3.941466168350198e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>9.973172419314539e-07</v>
+        <v>7.007674647925259e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276707419925388e-06</v>
+        <v>8.715479913208495e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>9.178343865237123</v>
+        <v>19.02894853937701</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05679308008739262</v>
+        <v>0.0007757180356660202</v>
       </c>
       <c r="J3" t="n">
-        <v>2.294585966309281</v>
+        <v>4.757237134844252</v>
       </c>
     </row>
     <row r="4">
@@ -482,7231 +482,7039 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.253434230392179e-05</v>
+        <v>1.488798819719439e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.753609747747929e-06</v>
+        <v>5.316474247427151e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.117675283243436e-06</v>
+        <v>9.888806616972648e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>6.545702995385158e-07</v>
+        <v>4.437730195637492e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>1.128372439783396e-06</v>
+        <v>8.013369561687889e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>1.422612944869798e-06</v>
+        <v>9.895801661749596e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>10.50772496970774</v>
+        <v>24.81922106334756</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03269074677350271</v>
+        <v>5.470043599398945e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.626931242426935</v>
+        <v>6.204805265836891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>2.586246681455101e-05</v>
+        <v>2.149721238313961e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>4.793948531563979e-06</v>
+        <v>-3.732358557953887e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.558260879462251e-06</v>
+        <v>1.089054551323314e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>7.567938629087964e-07</v>
+        <v>5.948598376751771e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>1.34323755219014e-06</v>
+        <v>1.054181442904138e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1.682055969039138e-06</v>
+        <v>1.288702332567121e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>5.91205110410297</v>
+        <v>4.38777842173318</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2058133314010793</v>
+        <v>0.3560621985663437</v>
       </c>
       <c r="J5" t="n">
-        <v>1.478012776025742</v>
+        <v>1.096944605433295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>3.215134816863106e-05</v>
+        <v>2.286385637455729e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>2.171948719447224e-06</v>
+        <v>-1.476624668681566e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.171126759943589e-06</v>
+        <v>3.757606301648127e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>8.796855824823705e-07</v>
+        <v>6.618932931825402e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>1.586373426707822e-06</v>
+        <v>1.163466359296474e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.934556326838148e-06</v>
+        <v>1.418719392947153e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>5.51355993865892</v>
+        <v>8.461032670484048</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2385401187585501</v>
+        <v>0.07607722498501814</v>
       </c>
       <c r="J6" t="n">
-        <v>1.37838998466473</v>
+        <v>2.115258167621012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.415351099932105e-05</v>
+        <v>2.317333874030765e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15764396557585e-06</v>
+        <v>-2.453154105336848e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.702378931453059e-06</v>
+        <v>1.082813506972704e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>9.728756205849261e-07</v>
+        <v>6.694929422575146e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>1.746676186747255e-06</v>
+        <v>1.171115025282054e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>2.086884768245051e-06</v>
+        <v>1.432923723198563e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>2.242980237569083</v>
+        <v>2.801401438187287</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6911686690993095</v>
+        <v>0.5915908244030197</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5607450593922708</v>
+        <v>0.7003503595468217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>3.474635486814424e-05</v>
+        <v>2.642134738725539e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.283696529596107e-06</v>
+        <v>-2.410580531735218e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.532208930963381e-07</v>
+        <v>4.680228054081183e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>9.843729879760871e-07</v>
+        <v>6.950634920780321e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>1.818145230132436e-06</v>
+        <v>1.233185141199096e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.143062843681895e-06</v>
+        <v>1.516710292061063e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>2.604703544212298</v>
+        <v>8.092426107194557</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6259901380207805</v>
+        <v>0.0882505825554853</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6511758860530745</v>
+        <v>2.023106526798639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>3.883797199941219e-05</v>
+        <v>2.602101500302434e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.085907766091955e-06</v>
+        <v>-9.897037888746045e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.453023441369192e-06</v>
+        <v>7.114933231670937e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>1.013420230925885e-06</v>
+        <v>6.664420235472989e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>1.830307382090152e-06</v>
+        <v>1.184637521351897e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.211246472760433e-06</v>
+        <v>1.431828011230825e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.717752740549603</v>
+        <v>2.068799025685487</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4455491555754951</v>
+        <v>0.7231064621019161</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9294381851374007</v>
+        <v>0.5171997564213718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>3.847454079517247e-05</v>
+        <v>2.371628480881717e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>1.116208464098716e-06</v>
+        <v>-1.300214271404787e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.825882883365342e-06</v>
+        <v>1.596453484450278e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>9.773178191249743e-07</v>
+        <v>6.608296355423959e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>1.762533869146238e-06</v>
+        <v>1.17339541217568e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>2.110082224894535e-06</v>
+        <v>1.413674175877486e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>1.744011767212337</v>
+        <v>5.191751576985474</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7827081679614187</v>
+        <v>0.2681823246143515</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4360029418030841</v>
+        <v>1.297937894246368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>3.561848909356672e-05</v>
+        <v>2.352088281438321e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.526919372134639e-07</v>
+        <v>-1.164987529749856e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.621328016103181e-06</v>
+        <v>4.773714699298376e-08</v>
       </c>
       <c r="E11" t="n">
-        <v>9.825504740507221e-07</v>
+        <v>6.585903892335093e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>1.802103852062296e-06</v>
+        <v>1.161764341576962e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.112901531225721e-06</v>
+        <v>1.404814580104169e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>4.00551873080586</v>
+        <v>6.98982661681689</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4052594859408097</v>
+        <v>0.1364268197868128</v>
       </c>
       <c r="J11" t="n">
-        <v>1.001379682701465</v>
+        <v>1.747456654204222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>3.553189512676543e-05</v>
+        <v>2.018631568601688e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1.740674045303842e-06</v>
+        <v>-1.313973442365561e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.586146426548977e-06</v>
+        <v>1.173069413926996e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>9.802884191081316e-07</v>
+        <v>5.570595952378164e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>1.757836588183398e-06</v>
+        <v>9.79361005191469e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.089188374868938e-06</v>
+        <v>1.19050679762541e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>2.248101782535708</v>
+        <v>3.545332447753548</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6902331581772208</v>
+        <v>0.4710190071379167</v>
       </c>
       <c r="J12" t="n">
-        <v>0.562025445633927</v>
+        <v>0.886333111938387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>3.013919357059504e-05</v>
+        <v>1.53088389176712e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.58357408768747e-07</v>
+        <v>-1.535875000196434e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.300184683764689e-06</v>
+        <v>2.233587573911764e-06</v>
       </c>
       <c r="E13" t="n">
-        <v>8.150582495992869e-07</v>
+        <v>4.452429949146363e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>1.475115547336358e-06</v>
+        <v>8.062288171406752e-07</v>
       </c>
       <c r="G13" t="n">
-        <v>1.755688602379496e-06</v>
+        <v>9.575100450349033e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>2.806019337075538</v>
+        <v>14.415789926969</v>
       </c>
       <c r="I13" t="n">
-        <v>0.590794115697564</v>
+        <v>0.006079708841971235</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7015048342688845</v>
+        <v>3.603947481742251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>2.350315901011582e-05</v>
+        <v>8.903510383757638e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>8.763264549998902e-07</v>
+        <v>2.349080446038515e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.651681407568559e-06</v>
+        <v>-1.579108107121961e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>6.718465247282221e-07</v>
+        <v>3.166507770211279e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>1.19988405057106e-06</v>
+        <v>5.207519892460562e-07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.425638552603348e-06</v>
+        <v>6.848178264392606e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>10.20911154656314</v>
+        <v>2.171454204090008</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0370487586407038</v>
+        <v>0.7042586585512264</v>
       </c>
       <c r="J14" t="n">
-        <v>2.552277886640784</v>
+        <v>0.5428635510225019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>1.318057769791016e-05</v>
+        <v>1.257194803055668e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.72996877453052e-07</v>
+        <v>-1.003058410341329e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>3.300997101184834e-07</v>
+        <v>4.230814802782833e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>4.489454386509825e-07</v>
+        <v>4.06059402603759e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>8.445400160698581e-07</v>
+        <v>7.049724910217907e-07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.017048873859721e-06</v>
+        <v>8.652721644045528e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>1.593185626750888</v>
+        <v>2.25762299987467</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8100163683377342</v>
+        <v>0.688494701061301</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3982964066877219</v>
+        <v>0.5644057499686674</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>1.860797520079919e-05</v>
+        <v>1.718842755372549e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.686394381045903e-06</v>
+        <v>2.415912870318084e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.618378937879974e-07</v>
+        <v>1.3651202519483e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>5.882739236541081e-07</v>
+        <v>5.416516277063854e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>1.091886290157322e-06</v>
+        <v>9.669973715855368e-07</v>
       </c>
       <c r="G16" t="n">
-        <v>1.294564520534109e-06</v>
+        <v>1.22495862338137e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.961994582267495</v>
+        <v>5.116668640186465</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9155030485639024</v>
+        <v>0.2755346815861191</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2404986455668738</v>
+        <v>1.279167160046616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>2.550381189838748e-05</v>
+        <v>2.008277275412086e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>5.87575172643545e-06</v>
+        <v>2.317919807158365e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.9620644451854e-06</v>
+        <v>2.696647831556292e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>7.942557591250624e-07</v>
+        <v>6.094914618358822e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>1.436167664801975e-06</v>
+        <v>1.092371650619225e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>1.800031916397747e-06</v>
+        <v>1.351841205083866e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>5.051906287941567</v>
+        <v>7.956433545482183</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2820129326021932</v>
+        <v>0.09318718902122</v>
       </c>
       <c r="J17" t="n">
-        <v>1.262976571985392</v>
+        <v>1.989108386370546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.066122769698249e-05</v>
+        <v>2.359507167888329e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>5.075482959063364e-06</v>
+        <v>2.933731611416488e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>2.348168453367343e-06</v>
+        <v>3.604396320378081e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>8.957942951098384e-07</v>
+        <v>7.03992283865722e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>1.72027381439447e-06</v>
+        <v>1.256392928513238e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>2.043952900934066e-06</v>
+        <v>1.609456843961133e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>3.945532179801271</v>
+        <v>16.39993065143626</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4134274525806261</v>
+        <v>0.002526890936937979</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9863830449503178</v>
+        <v>4.099982662859065</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>3.534104804301268e-05</v>
+        <v>2.855669060265166e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.532237818955564e-06</v>
+        <v>4.6806832672604e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.923591092036812e-07</v>
+        <v>2.979373406494351e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>1.023818978065743e-06</v>
+        <v>8.100798182396709e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>1.888972548463055e-06</v>
+        <v>1.447490648312952e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>2.355497485409907e-06</v>
+        <v>1.845425907681165e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>5.473880032504491</v>
+        <v>5.445617979863431</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2420350043555599</v>
+        <v>0.2445512203618972</v>
       </c>
       <c r="J19" t="n">
-        <v>1.368470008126123</v>
+        <v>1.361404494965858</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>4.237286020093778e-05</v>
+        <v>3.174475746026563e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.03126924424365e-05</v>
+        <v>6.046311198075995e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>2.50159105955435e-06</v>
+        <v>2.893668348245468e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>1.18001743997461e-06</v>
+        <v>9.189091481342365e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>2.2190274531792e-06</v>
+        <v>1.644370008159794e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>2.744533211671832e-06</v>
+        <v>2.094943429092662e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>2.644540247535584</v>
+        <v>14.27541719411871</v>
       </c>
       <c r="I20" t="n">
-        <v>0.618953633320289</v>
+        <v>0.006465984765300221</v>
       </c>
       <c r="J20" t="n">
-        <v>0.661135061883896</v>
+        <v>3.568854298529677</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>4.678165980119964e-05</v>
+        <v>4.853126916167463e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.46541741832296e-05</v>
+        <v>7.950672475255569e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.288945083791635e-06</v>
+        <v>5.49745647999461e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>1.328745248403911e-06</v>
+        <v>1.313844181883831e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>2.44010990943493e-06</v>
+        <v>2.369197257757487e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>3.047784316408314e-06</v>
+        <v>3.014565371822453e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>4.782367611213981</v>
+        <v>5.181787882394225</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3103654701362583</v>
+        <v>0.2691482970854593</v>
       </c>
       <c r="J21" t="n">
-        <v>1.195591902803495</v>
+        <v>1.295446970598556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>7.239702923996774e-05</v>
+        <v>0.0001385392563365003</v>
       </c>
       <c r="C22" t="n">
-        <v>1.772983110369282e-05</v>
+        <v>3.692339082901565e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.049091166079673e-06</v>
+        <v>2.141235560243281e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>1.93111129661337e-06</v>
+        <v>3.592253293287639e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>3.541467895605682e-06</v>
+        <v>6.61417392719377e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>4.480680770540595e-06</v>
+        <v>8.498645790878241e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>3.332208565152973</v>
+        <v>6.453292461290568</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5038453285339941</v>
+        <v>0.1677572298106549</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8330521412882432</v>
+        <v>1.613323115322642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002070112503431051</v>
+        <v>0.0002172017375684555</v>
       </c>
       <c r="C23" t="n">
-        <v>7.16552310015216e-05</v>
+        <v>5.677891359444733e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>3.767568095035755e-06</v>
+        <v>3.564032076722672e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>5.279514823181496e-06</v>
+        <v>5.560938329378597e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>9.867504236087231e-06</v>
+        <v>1.036762634866103e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>1.256149382705617e-05</v>
+        <v>1.326218383763461e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>1.045745242261191</v>
+        <v>12.94880582630552</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9027819861674381</v>
+        <v>0.01152866570795437</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2614363105652977</v>
+        <v>3.237201456576381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003289728932473946</v>
+        <v>0.0003267242326053165</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001179547249265935</v>
+        <v>7.56292614583948e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.724001148531e-06</v>
+        <v>3.396516118471451e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>8.277077222076851e-06</v>
+        <v>8.231237033102889e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>1.52452957767789e-05</v>
+        <v>1.519429236613164e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>1.962720546171517e-05</v>
+        <v>1.931389661284664e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>2.936381029773464</v>
+        <v>11.92101602016924</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5685277139174922</v>
+        <v>0.01794837767334848</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7340952574433659</v>
+        <v>2.980254005042311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0004945571901364692</v>
+        <v>0.0003315311776284231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000145908863740349</v>
+        <v>8.4608582580331e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.836984947657942e-05</v>
+        <v>3.802766091585698e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>1.223891548330657e-05</v>
+        <v>8.120205811888306e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>2.253483083221369e-05</v>
+        <v>1.507797517691112e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>2.860471615443369e-05</v>
+        <v>1.935568119288231e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>1.962375536534234</v>
+        <v>10.48375518863905</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7426791035765157</v>
+        <v>0.03302149517341597</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4905938841335585</v>
+        <v>2.620938797159762</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004964972081378147</v>
+        <v>0.0003070368430431036</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0001625217754628247</v>
+        <v>6.253995184692869e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.984038239492895e-06</v>
+        <v>4.62601668145007e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>1.20269193231682e-05</v>
+        <v>7.670343780992542e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>2.216077962027223e-05</v>
+        <v>1.433143889809654e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>2.855317008864165e-05</v>
+        <v>1.813190706645858e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>2.777657011095867</v>
+        <v>11.19878120569296</v>
       </c>
       <c r="I26" t="n">
-        <v>0.595695633255098</v>
+        <v>0.02441852310646846</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6944142527739668</v>
+        <v>2.79969530142324</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004612720286526437</v>
+        <v>0.0002924368623851435</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000144047496374824</v>
+        <v>6.774695635675915e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.881070341753881e-05</v>
+        <v>4.272038627543774e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>1.143570934622249e-05</v>
+        <v>7.505426102205581e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>2.068268831611309e-05</v>
+        <v>1.385025461496862e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>2.672753928459366e-05</v>
+        <v>1.771943613239006e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>4.736933962144067</v>
+        <v>10.91584497388156</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3153698373708256</v>
+        <v>0.02752626009733442</v>
       </c>
       <c r="J27" t="n">
-        <v>1.184233490536017</v>
+        <v>2.72896124347039</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004389307844743376</v>
+        <v>0.0002936232125012682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0001406688463991283</v>
+        <v>6.110412840075954e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.04935603652364e-05</v>
+        <v>4.075029152756239e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.109797482862156e-05</v>
+        <v>7.522188443587795e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>2.039765015390188e-05</v>
+        <v>1.390268775461123e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>2.61596132670896e-05</v>
+        <v>1.76982507667637e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>3.636551204889179</v>
+        <v>10.43634656234932</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4574213173349903</v>
+        <v>0.03368518669334894</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9091378012222947</v>
+        <v>2.609086640587329</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004424629163341727</v>
+        <v>0.000298227821964963</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001374896962635858</v>
+        <v>5.851460579486383e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.816650177913237e-05</v>
+        <v>4.073452872846493e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>1.11649703669389e-05</v>
+        <v>7.465839098660281e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>2.035623153526968e-05</v>
+        <v>1.390746874937535e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>2.611204856754059e-05</v>
+        <v>1.750384861528239e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>3.14125337131191</v>
+        <v>9.902052269666504</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5344714470250226</v>
+        <v>0.04211031861805519</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7853133428279775</v>
+        <v>2.475513067416626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004482292181490949</v>
+        <v>0.000287447617467634</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001242319752125206</v>
+        <v>5.447359074618803e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.548912998685243e-06</v>
+        <v>4.540910488763292e-05</v>
       </c>
       <c r="E30" t="n">
-        <v>1.109663966078452e-05</v>
+        <v>7.222299348343078e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>2.032718930366263e-05</v>
+        <v>1.350724144043951e-05</v>
       </c>
       <c r="G30" t="n">
-        <v>2.582034997171729e-05</v>
+        <v>1.696411439698276e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>2.072826455412158</v>
+        <v>11.04461279450158</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7223661114438382</v>
+        <v>0.02606717700862815</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5182066138530395</v>
+        <v>2.761153198625395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004307435221314363</v>
+        <v>0.0002902475973755522</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001259828088364247</v>
+        <v>6.689073779670354e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.207968478698473e-05</v>
+        <v>4.03141316488767e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>1.072526162921347e-05</v>
+        <v>7.321313976229263e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>1.949673301552716e-05</v>
+        <v>1.360587791972866e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>2.490405487223872e-05</v>
+        <v>1.730804469933702e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>4.270242649686483</v>
+        <v>11.2875010126022</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3706661630948502</v>
+        <v>0.02351600873516738</v>
       </c>
       <c r="J31" t="n">
-        <v>1.067560662421621</v>
+        <v>2.821875253150549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004367231201291063</v>
+        <v>0.0002875153780151965</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0001427472004418314</v>
+        <v>6.951776946326197e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.424049424177056e-05</v>
+        <v>4.990887012603246e-05</v>
       </c>
       <c r="E32" t="n">
-        <v>1.08685364469395e-05</v>
+        <v>7.351902158173862e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>1.986204014547731e-05</v>
+        <v>1.372291151892546e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>2.560752178253763e-05</v>
+        <v>1.757523730492217e-05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.764087114036414</v>
+        <v>14.12330057906398</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5980476772597829</v>
+        <v>0.006911752859434919</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6910217785091034</v>
+        <v>3.530825144765994</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>0.000432854589392356</v>
+        <v>0.0002815379351541154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001556295762742085</v>
+        <v>6.082890957378112e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.496259377411113e-05</v>
+        <v>4.190892289703961e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>1.089725027628751e-05</v>
+        <v>7.057457993535474e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>1.982291919194999e-05</v>
+        <v>1.30652335648726e-05</v>
       </c>
       <c r="G33" t="n">
-        <v>2.580046992937458e-05</v>
+        <v>1.661621984064538e-05</v>
       </c>
       <c r="H33" t="n">
-        <v>4.775268330696507</v>
+        <v>8.667787598312724</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3111430906944517</v>
+        <v>0.06996135339401825</v>
       </c>
       <c r="J33" t="n">
-        <v>1.193817082674127</v>
+        <v>2.166946899578181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004216636375809392</v>
+        <v>0.0002758098166696309</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0001214612440127938</v>
+        <v>6.5161380448451e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>2.085749142387966e-06</v>
+        <v>3.049304586756586e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>1.043673330940344e-05</v>
+        <v>7.116230327939352e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>1.926885637938024e-05</v>
+        <v>1.29167252390089e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>2.451206249551061e-05</v>
+        <v>1.666258132362898e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.924574826576594</v>
+        <v>7.660394717209442</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5705259338650315</v>
+        <v>0.1048410347493473</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7311437066441485</v>
+        <v>1.915098679302361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004126674508484821</v>
+        <v>0.0002543289320453458</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0001278786984991928</v>
+        <v>5.460554999947023e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.626174801175141e-06</v>
+        <v>4.488342077359182e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>1.043815207274689e-05</v>
+        <v>6.438335614329267e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>1.942448655594909e-05</v>
+        <v>1.206431971850782e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>2.468695513676441e-05</v>
+        <v>1.526207591163695e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.068457457607676</v>
+        <v>13.02921639700054</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7231692538853483</v>
+        <v>0.01113391623520547</v>
       </c>
       <c r="J35" t="n">
-        <v>0.517114364401919</v>
+        <v>3.257304099250134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003832091208527165</v>
+        <v>0.0002311014576631897</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001213439211499791</v>
+        <v>5.020586796903296e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.811874533464672e-06</v>
+        <v>4.418277915133978e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>9.580103081343838e-06</v>
+        <v>5.826401056146153e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>1.749185364153413e-05</v>
+        <v>1.097458392360725e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2475277271442e-05</v>
+        <v>1.390726888437488e-05</v>
       </c>
       <c r="H36" t="n">
-        <v>5.152688867461341</v>
+        <v>13.56885806572728</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2719863866824117</v>
+        <v>0.00880616202681923</v>
       </c>
       <c r="J36" t="n">
-        <v>1.288172216865335</v>
+        <v>3.39221451643182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0003483606917158728</v>
+        <v>0.0001881065413277511</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000113567183056668</v>
+        <v>4.388681092290462e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.459249783695277e-06</v>
+        <v>2.678217415880125e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>8.686836634855048e-06</v>
+        <v>4.709668221128742e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>1.582281091819407e-05</v>
+        <v>8.789830027096051e-06</v>
       </c>
       <c r="G37" t="n">
-        <v>2.047054887830686e-05</v>
+        <v>1.116979514300572e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>5.954963439170399</v>
+        <v>13.29777808534098</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2025369713926222</v>
+        <v>0.009908833682270159</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4887408597926</v>
+        <v>3.324444521335244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002827976315734979</v>
+        <v>0.0001507538904569764</v>
       </c>
       <c r="C38" t="n">
-        <v>9.260262389694976e-05</v>
+        <v>3.08270916374151e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.261422153123165e-06</v>
+        <v>1.861034144070618e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>6.99353993625683e-06</v>
+        <v>3.760565617795579e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>1.278921134808997e-05</v>
+        <v>6.958071799545333e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>1.642943632687599e-05</v>
+        <v>8.849045231596972e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>3.99979879304583</v>
+        <v>9.896114636504981</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4060330807948382</v>
+        <v>0.04221445195654756</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9999496982614575</v>
+        <v>2.474028659126245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>0.000225880017447889</v>
+        <v>0.0001007533066530208</v>
       </c>
       <c r="C39" t="n">
-        <v>6.694352825290762e-05</v>
+        <v>2.222345155771879e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.421943315443443e-06</v>
+        <v>1.997847755407474e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>5.570752332236579e-06</v>
+        <v>2.5370039273538e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>1.019182366654211e-05</v>
+        <v>4.79057167783252e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>1.305017368938953e-05</v>
+        <v>6.058016087416129e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>3.031539241049596</v>
+        <v>11.71415435594222</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5525613275564223</v>
+        <v>0.0196084262507758</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7578848102623991</v>
+        <v>2.928538588985554</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001519032413201891</v>
+        <v>0.0001437785054931939</v>
       </c>
       <c r="C40" t="n">
-        <v>5.265476881068631e-05</v>
+        <v>3.235165715109308e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.151517631657603e-06</v>
+        <v>1.803347973958119e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>3.786835911716239e-06</v>
+        <v>3.673364624470947e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>6.874096951384686e-06</v>
+        <v>6.750227082747198e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>8.942136270220145e-06</v>
+        <v>8.627360607745127e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>5.514909492124666</v>
+        <v>8.125526239606472</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2384220283841744</v>
+        <v>0.08708673399798898</v>
       </c>
       <c r="J40" t="n">
-        <v>1.378727373031166</v>
+        <v>2.031381559901618</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002149649117280042</v>
+        <v>7.142307116721306e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>6.515943251160459e-05</v>
+        <v>1.660601400585675e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.709103342968095e-06</v>
+        <v>1.108907434923506e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>5.40872528969999e-06</v>
+        <v>1.862520336095129e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>9.986226411525332e-06</v>
+        <v>3.454600282553664e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>1.273134977560228e-05</v>
+        <v>4.385826531149414e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>1.821841628416658</v>
+        <v>12.14984381687197</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7684839610803562</v>
+        <v>0.01627108776894703</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4554604071041645</v>
+        <v>3.037460954217993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>0.000107918371444229</v>
+        <v>4.90911907582069e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>3.465393395312002e-05</v>
+        <v>8.019937545475525e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.375757071084849e-06</v>
+        <v>4.543462559433465e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>2.766686830925497e-06</v>
+        <v>1.299337472379027e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>5.096512300311033e-06</v>
+        <v>2.32844843284469e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>6.48056351992876e-06</v>
+        <v>2.977053348645272e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>3.091966410474765</v>
+        <v>5.058864173314173</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5425547366249104</v>
+        <v>0.2813108169988172</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7729916026186912</v>
+        <v>1.264716043328543</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>7.321974117570484e-05</v>
+        <v>3.719163979242035e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.535711572225838e-05</v>
+        <v>4.919605580164355e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.440543576031165e-06</v>
+        <v>4.817520174807272e-06</v>
       </c>
       <c r="E43" t="n">
-        <v>1.90247463021999e-06</v>
+        <v>9.984579482633211e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>3.525948319588951e-06</v>
+        <v>1.816508537602277e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>4.388645900331398e-06</v>
+        <v>2.2746245561667e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>1.585856786063015</v>
+        <v>10.65961354729619</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8113318388077584</v>
+        <v>0.03066795245965427</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3964641965157538</v>
+        <v>2.664903386824049</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>5.571901807405406e-05</v>
+        <v>2.281098860483391e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.193164160388334e-05</v>
+        <v>2.934300131750403e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.253097406796939e-06</v>
+        <v>1.698599094147266e-06</v>
       </c>
       <c r="E44" t="n">
-        <v>1.472296449248469e-06</v>
+        <v>6.662927595243442e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>2.694856121726759e-06</v>
+        <v>1.171379668801235e-06</v>
       </c>
       <c r="G44" t="n">
-        <v>3.348496360638034e-06</v>
+        <v>1.505454296073684e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>3.871491125784323</v>
+        <v>6.703171547713543</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4236769108070484</v>
+        <v>0.1524306638700331</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9678727814460807</v>
+        <v>1.675792886928386</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>3.348904041813839e-05</v>
+        <v>2.009910944117843e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>8.037298114647132e-06</v>
+        <v>5.582370545872623e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.357803901952828e-07</v>
+        <v>1.807738993469897e-06</v>
       </c>
       <c r="E45" t="n">
-        <v>9.545437648355854e-07</v>
+        <v>6.177982581813627e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>1.774265893230185e-06</v>
+        <v>1.07939463342827e-06</v>
       </c>
       <c r="G45" t="n">
-        <v>2.222403449343997e-06</v>
+        <v>1.377411342809602e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>2.561304807934148</v>
+        <v>10.92568831667161</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6336928790339256</v>
+        <v>0.02741199287326768</v>
       </c>
       <c r="J45" t="n">
-        <v>0.640326201983537</v>
+        <v>2.731422079167902</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.991505160106451e-05</v>
+        <v>1.942661468846525e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>3.366493885355845e-06</v>
+        <v>5.175618377183698e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.919350258795949e-06</v>
+        <v>-5.390145929419564e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>9.043209137456739e-07</v>
+        <v>5.863931837926556e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>1.630809527822707e-06</v>
+        <v>9.943608954934874e-07</v>
       </c>
       <c r="G46" t="n">
-        <v>2.027320814207675e-06</v>
+        <v>1.272290480099766e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>7.415849829400228</v>
+        <v>3.674636675076442</v>
       </c>
       <c r="I46" t="n">
-        <v>0.115477719328172</v>
+        <v>0.4518256160490223</v>
       </c>
       <c r="J46" t="n">
-        <v>1.853962457350057</v>
+        <v>0.9186591687691106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.831640809768285e-05</v>
+        <v>2.134873142683934e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>3.119406452010349e-06</v>
+        <v>-2.031911175963356e-08</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.606740933687462e-06</v>
+        <v>-1.28678582376389e-06</v>
       </c>
       <c r="E47" t="n">
-        <v>8.298799753937136e-07</v>
+        <v>6.117562947159795e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1.519229381931947e-06</v>
+        <v>1.027037094222265e-06</v>
       </c>
       <c r="G47" t="n">
-        <v>1.868375701874186e-06</v>
+        <v>1.307351436804207e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>3.367863992649152</v>
+        <v>3.294392274615927</v>
       </c>
       <c r="I47" t="n">
-        <v>0.498252095476152</v>
+        <v>0.5098212428883679</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8419659981622881</v>
+        <v>0.8235980686539817</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>3.083330464162303e-05</v>
+        <v>2.696075041649824e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>9.503265698069524e-07</v>
+        <v>-1.755794538986234e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.963605786915936e-06</v>
+        <v>1.363477542957964e-06</v>
       </c>
       <c r="E48" t="n">
-        <v>8.741134954033114e-07</v>
+        <v>7.382519707909985e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>1.594785071919904e-06</v>
+        <v>1.271962144325017e-06</v>
       </c>
       <c r="G48" t="n">
-        <v>1.927607317592689e-06</v>
+        <v>1.552582114394241e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>6.256353270440688</v>
+        <v>3.197663913141508</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1808041607272823</v>
+        <v>0.5253083476423703</v>
       </c>
       <c r="J48" t="n">
-        <v>1.564088317610172</v>
+        <v>0.799415978285377</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>3.988040309041732e-05</v>
+        <v>3.718886090500032e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.422688248658025e-06</v>
+        <v>-3.509979945053021e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>2.482747111162332e-06</v>
+        <v>1.785644378404054e-06</v>
       </c>
       <c r="E49" t="n">
-        <v>1.07961200947293e-06</v>
+        <v>9.847910836932516e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>2.034481602251975e-06</v>
+        <v>1.713940525102587e-06</v>
       </c>
       <c r="G49" t="n">
-        <v>2.363194518150009e-06</v>
+        <v>2.087341670154899e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>1.676351725437252</v>
+        <v>3.028666068521109</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7950087470607883</v>
+        <v>0.5530397159259903</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4190879313593131</v>
+        <v>0.7571665171302772</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>5.454620688762674e-05</v>
+        <v>5.38727348019823e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>-3.031096191466317e-06</v>
+        <v>-4.137211812883745e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>6.866671296321087e-07</v>
+        <v>2.646791103405347e-06</v>
       </c>
       <c r="E50" t="n">
-        <v>1.438393693874204e-06</v>
+        <v>1.393633358394333e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>2.627711316568716e-06</v>
+        <v>2.46803121233001e-06</v>
       </c>
       <c r="G50" t="n">
-        <v>3.104884316066753e-06</v>
+        <v>2.961667633493056e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>4.625322885479568</v>
+        <v>3.719769971682326</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3279449515956434</v>
+        <v>0.4452570262132987</v>
       </c>
       <c r="J50" t="n">
-        <v>1.156330721369892</v>
+        <v>0.9299424929205814</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>7.969442943786195e-05</v>
+        <v>6.767823486783382e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.721508048238092e-06</v>
+        <v>-4.636433181740811e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.681240139494454e-06</v>
+        <v>1.282822413544403e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>2.051856361176231e-06</v>
+        <v>1.686011172514885e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>3.726034908382291e-06</v>
+        <v>2.96379279893891e-06</v>
       </c>
       <c r="G51" t="n">
-        <v>4.391283794107229e-06</v>
+        <v>3.576138990708295e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>5.93112018480633</v>
+        <v>1.170167615566126</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2043516513176291</v>
+        <v>0.882985476623214</v>
       </c>
       <c r="J51" t="n">
-        <v>1.482780046201583</v>
+        <v>0.2925419038915316</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>9.986541413452701e-05</v>
+        <v>0.0001271218455632619</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.467558385140945e-06</v>
+        <v>-1.189708552669799e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.623542713655586e-06</v>
+        <v>3.059970947071495e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>2.474721359653799e-06</v>
+        <v>3.288516673558152e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>4.507068163274635e-06</v>
+        <v>5.708780650495653e-06</v>
       </c>
       <c r="G52" t="n">
-        <v>5.267475091847786e-06</v>
+        <v>6.897823418924693e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>1.577349658412041</v>
+        <v>2.687244868883448</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8128572229341854</v>
+        <v>0.6114484348054642</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3943374146030103</v>
+        <v>0.671811217220862</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001885181489033564</v>
+        <v>0.0001996715335227166</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.380904499306054e-05</v>
+        <v>-2.36175265067109e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.899863455932587e-07</v>
+        <v>-9.261685681042427e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>4.825487537268085e-06</v>
+        <v>5.006545085914123e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>8.870058854502739e-06</v>
+        <v>8.712687150308527e-06</v>
       </c>
       <c r="G53" t="n">
-        <v>1.033428649129912e-05</v>
+        <v>1.03488952642473e-05</v>
       </c>
       <c r="H53" t="n">
-        <v>3.039680834772104</v>
+        <v>0.7500534123645869</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5512070085418959</v>
+        <v>0.9450158751071185</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7599202086930259</v>
+        <v>0.1875133530911467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002953153876925333</v>
+        <v>0.0004676636448372147</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.244416387165628e-05</v>
+        <v>-5.19887873249163e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.734220027404853e-06</v>
+        <v>-4.216705959133194e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>7.356856213785432e-06</v>
+        <v>1.194818789396906e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>1.344631207752679e-05</v>
+        <v>2.058133553036233e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>1.543833301832538e-05</v>
+        <v>2.458246361447236e-05</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9976299405673039</v>
+        <v>1.014184284334282</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9101551548072484</v>
+        <v>0.907637615774083</v>
       </c>
       <c r="J54" t="n">
-        <v>0.249407485141826</v>
+        <v>0.2535460710835705</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006941127103160807</v>
+        <v>0.0006993921326251547</v>
       </c>
       <c r="C55" t="n">
-        <v>-8.67966213950128e-05</v>
+        <v>-7.667541500419161e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.098552176696842e-05</v>
+        <v>1.99064108709721e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>1.756213371951355e-05</v>
+        <v>1.740682342983751e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>3.253290461762425e-05</v>
+        <v>3.0505584665134e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>3.69677411749379e-05</v>
+        <v>3.645663488896725e-05</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6768107508048201</v>
+        <v>2.401552547057157</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9541575366307811</v>
+        <v>0.6623467134632012</v>
       </c>
       <c r="J55" t="n">
-        <v>0.169202687701205</v>
+        <v>0.6003881367642891</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001033732354024066</v>
+        <v>0.0007376180551618678</v>
       </c>
       <c r="C56" t="n">
-        <v>-9.766737681489337e-05</v>
+        <v>-0.0001101843095454303</v>
       </c>
       <c r="D56" t="n">
-        <v>5.802017295562182e-06</v>
+        <v>3.155983817078865e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>2.557425073272964e-05</v>
+        <v>1.801233384675751e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>4.66488592199716e-05</v>
+        <v>3.177415707590239e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>5.412969212342124e-05</v>
+        <v>3.738348074297235e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>3.069752407800074</v>
+        <v>2.664921100094122</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5462211204000615</v>
+        <v>0.6153667732850375</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7674381019500184</v>
+        <v>0.6662302750235306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001090144715032086</v>
+        <v>0.0005436608153274348</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0001365504082745338</v>
+        <v>-6.617111855859812e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>2.67773774825634e-06</v>
+        <v>1.506758868167048e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>2.652403461202237e-05</v>
+        <v>1.360651050198318e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>4.784703050543466e-05</v>
+        <v>2.37420809253554e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>5.538709620260177e-05</v>
+        <v>2.827850003490757e-05</v>
       </c>
       <c r="H57" t="n">
-        <v>5.196141598499242</v>
+        <v>2.570093274381442</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2677576532423035</v>
+        <v>0.6321300043500573</v>
       </c>
       <c r="J57" t="n">
-        <v>1.299035399624811</v>
+        <v>0.6425233185953604</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008052098251362931</v>
+        <v>0.0002582132325547984</v>
       </c>
       <c r="C58" t="n">
-        <v>-9.405543257650956e-05</v>
+        <v>-3.350758201709587e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>1.397312747965706e-05</v>
+        <v>9.767875865132039e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>2.001997050248923e-05</v>
+        <v>6.550463018530956e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>3.664665099945465e-05</v>
+        <v>1.158221549743684e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>4.214939560948513e-05</v>
+        <v>1.366176497047219e-05</v>
       </c>
       <c r="H58" t="n">
-        <v>2.773258475649071</v>
+        <v>1.805154885104883</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5964575362741003</v>
+        <v>0.7715391007880659</v>
       </c>
       <c r="J58" t="n">
-        <v>0.6933146189122678</v>
+        <v>0.4512887212762207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003841897456213595</v>
+        <v>0.0001901613894313775</v>
       </c>
       <c r="C59" t="n">
-        <v>-3.16519143040191e-05</v>
+        <v>-1.964965877816931e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.074209160354376e-05</v>
+        <v>1.102093921313981e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>9.681636545741785e-06</v>
+        <v>4.880913394549753e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>1.747551022831335e-05</v>
+        <v>8.499951764587545e-06</v>
       </c>
       <c r="G59" t="n">
-        <v>2.034713178490474e-05</v>
+        <v>1.014518987899759e-05</v>
       </c>
       <c r="H59" t="n">
-        <v>3.749815710302858</v>
+        <v>1.703980891050444</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4409220256304501</v>
+        <v>0.7899943635303733</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9374539275757146</v>
+        <v>0.4259952227626109</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002833896105329389</v>
+        <v>0.0002537065531717815</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.949849113786273e-05</v>
+        <v>-3.559358539397705e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>7.844873694970661e-07</v>
+        <v>6.42379990053874e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>7.216080154659615e-06</v>
+        <v>6.34555455798798e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>1.331914776097164e-05</v>
+        <v>1.108951602924058e-05</v>
       </c>
       <c r="G60" t="n">
-        <v>1.523433439409203e-05</v>
+        <v>1.315162733621183e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>2.444419543253631</v>
+        <v>2.548951115373176</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6546152122444289</v>
+        <v>0.635892308681192</v>
       </c>
       <c r="J60" t="n">
-        <v>0.6111048858134077</v>
+        <v>0.637237778843294</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003743197139149446</v>
+        <v>9.784723319493234e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.789711224462107e-05</v>
+        <v>-8.652055871014058e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>6.960218125112564e-06</v>
+        <v>4.429693044146182e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>9.309141782739104e-06</v>
+        <v>2.568396732861742e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>1.696015454280643e-05</v>
+        <v>4.471467036347216e-06</v>
       </c>
       <c r="G61" t="n">
-        <v>1.956167787360124e-05</v>
+        <v>5.434632245126869e-06</v>
       </c>
       <c r="H61" t="n">
-        <v>3.959648530458378</v>
+        <v>3.175181516996641</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4114943711360293</v>
+        <v>0.5289488599952421</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9899121326145944</v>
+        <v>0.7937953792491602</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.000144213916129693</v>
+        <v>6.541627210901147e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.988121244306495e-06</v>
+        <v>-4.060670272181106e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>1.458301400973568e-06</v>
+        <v>4.843657025911427e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>3.752231475273316e-06</v>
+        <v>1.681627057219709e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>6.854337960566318e-06</v>
+        <v>2.993699188195611e-06</v>
       </c>
       <c r="G62" t="n">
-        <v>8.026690961509297e-06</v>
+        <v>3.613739338891732e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>4.464937940322057</v>
+        <v>2.178460613895448</v>
       </c>
       <c r="I62" t="n">
-        <v>0.3467252019899234</v>
+        <v>0.7029745548012858</v>
       </c>
       <c r="J62" t="n">
-        <v>1.116234485080514</v>
+        <v>0.5446151534738619</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>9.69852078559342e-05</v>
+        <v>3.701413748868466e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>-8.121482505497537e-07</v>
+        <v>1.058008825058965e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.15838250260296e-06</v>
+        <v>3.009939132047049e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>2.476182334266629e-06</v>
+        <v>1.020005218294928e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>4.499279948141316e-06</v>
+        <v>1.812759603612605e-06</v>
       </c>
       <c r="G63" t="n">
-        <v>5.333540210230433e-06</v>
+        <v>2.249512547947809e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>3.867377866531589</v>
+        <v>4.120072577336406</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4242517370189568</v>
+        <v>0.3899996201893676</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9668444666328972</v>
+        <v>1.030018144334101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>5.500388863561644e-05</v>
+        <v>2.804340436455082e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>4.598459434177313e-06</v>
+        <v>2.592610487826546e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.72246368223102e-07</v>
+        <v>8.20197233141063e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1.49529931981451e-06</v>
+        <v>7.85476726273211e-07</v>
       </c>
       <c r="F64" t="n">
-        <v>2.742633134517447e-06</v>
+        <v>1.350064675485702e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>3.329631158529267e-06</v>
+        <v>1.739008521435334e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>4.725628163852013</v>
+        <v>3.109278029345967</v>
       </c>
       <c r="I64" t="n">
-        <v>0.316625391527414</v>
+        <v>0.5397074276810849</v>
       </c>
       <c r="J64" t="n">
-        <v>1.181407040963003</v>
+        <v>0.7773195073364917</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.131104826165721e-05</v>
+        <v>6.238147328990049e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>3.156576311700346e-06</v>
+        <v>1.345919028131053e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>2.426017882810914e-06</v>
+        <v>8.583979530480039e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>1.128484373021319e-06</v>
+        <v>1.681617217126348e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>2.140383921798578e-06</v>
+        <v>3.050997457459692e-06</v>
       </c>
       <c r="G65" t="n">
-        <v>2.577990356562681e-06</v>
+        <v>3.905538110487209e-06</v>
       </c>
       <c r="H65" t="n">
-        <v>1.954136740686486</v>
+        <v>4.048031406319596</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7441942095448848</v>
+        <v>0.3995445314563142</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4885341851716215</v>
+        <v>1.012007851579899</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>9.508759040258371e-05</v>
+        <v>0.0001832719352931785</v>
       </c>
       <c r="C66" t="n">
-        <v>2.513898437290277e-05</v>
+        <v>3.543637822247256e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>1.596526014176013e-06</v>
+        <v>2.773334808693027e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>2.508096245051375e-06</v>
+        <v>4.750635583020969e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>4.668453891519441e-06</v>
+        <v>8.757112400026147e-06</v>
       </c>
       <c r="G66" t="n">
-        <v>5.847975719994436e-06</v>
+        <v>1.116444682086703e-05</v>
       </c>
       <c r="H66" t="n">
-        <v>1.803695688127146</v>
+        <v>11.34705316929306</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7718061349658906</v>
+        <v>0.02292841882473371</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4509239220317866</v>
+        <v>2.836763292323264</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002755894907214005</v>
+        <v>0.00032238499165387</v>
       </c>
       <c r="C67" t="n">
-        <v>8.166926068315259e-05</v>
+        <v>5.593350150162585e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.330483674074749e-06</v>
+        <v>3.916742225224294e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>7.041711501842173e-06</v>
+        <v>8.005853936710199e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>1.286368697442126e-05</v>
+        <v>1.46834484924058e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>1.651505727729474e-05</v>
+        <v>1.858256677961061e-05</v>
       </c>
       <c r="H67" t="n">
-        <v>4.86750713006855</v>
+        <v>4.895133855111297</v>
       </c>
       <c r="I67" t="n">
-        <v>0.3011642239872222</v>
+        <v>0.2982276423193541</v>
       </c>
       <c r="J67" t="n">
-        <v>1.216876782517138</v>
+        <v>1.223783463777824</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004818709273727767</v>
+        <v>0.0005859235168474056</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0001158358706249631</v>
+        <v>7.95148922959075e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>2.056264978032201e-06</v>
+        <v>6.095300417726149e-05</v>
       </c>
       <c r="E68" t="n">
-        <v>1.181607744888684e-05</v>
+        <v>1.457699691344295e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>2.182979246644647e-05</v>
+        <v>2.665566979031699e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>2.749491014515075e-05</v>
+        <v>3.365976076529687e-05</v>
       </c>
       <c r="H68" t="n">
-        <v>1.964591256965862</v>
+        <v>8.392237905292451</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7422716133666949</v>
+        <v>0.07822179506586444</v>
       </c>
       <c r="J68" t="n">
-        <v>0.4911478142414654</v>
+        <v>2.098059476323113</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008754954119993455</v>
+        <v>0.0005868989744979476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0001821745578686244</v>
+        <v>8.900456398678371e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.779459305203154e-05</v>
+        <v>6.383126743508642e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>2.155881313959195e-05</v>
+        <v>1.39787030335255e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>3.925814254693155e-05</v>
+        <v>2.589803083538233e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>4.970426172672519e-05</v>
+        <v>3.240320162735539e-05</v>
       </c>
       <c r="H69" t="n">
-        <v>5.190402749032558</v>
+        <v>5.759242612714679</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2683129194397819</v>
+        <v>0.2178641100522103</v>
       </c>
       <c r="J69" t="n">
-        <v>1.29760068725814</v>
+        <v>1.43981065317867</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>0.000873722431476973</v>
+        <v>0.001022200504480621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0001896729180179207</v>
+        <v>0.0001346499548630993</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.87845778532875e-06</v>
+        <v>8.878447974131152e-05</v>
       </c>
       <c r="E70" t="n">
-        <v>2.070044544728435e-05</v>
+        <v>2.464978196397956e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>3.777197220875824e-05</v>
+        <v>4.505417568008516e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>4.774835659320354e-05</v>
+        <v>5.639615448077564e-05</v>
       </c>
       <c r="H70" t="n">
-        <v>2.372472503427856</v>
+        <v>4.038810828276742</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6676075401087233</v>
+        <v>0.4007788560893277</v>
       </c>
       <c r="J70" t="n">
-        <v>0.5931181258569641</v>
+        <v>1.009702707069186</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001524002859973626</v>
+        <v>0.001134721938662179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002773220553665652</v>
+        <v>0.0001289098198260747</v>
       </c>
       <c r="D71" t="n">
-        <v>-5.683156110325004e-06</v>
+        <v>8.68940014729922e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>3.64429224776068e-05</v>
+        <v>2.826983603421669e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>6.692677701351348e-05</v>
+        <v>5.102767365932053e-05</v>
       </c>
       <c r="G71" t="n">
-        <v>8.34770281006134e-05</v>
+        <v>6.438327588261383e-05</v>
       </c>
       <c r="H71" t="n">
-        <v>1.651399420402343</v>
+        <v>5.371444132372785</v>
       </c>
       <c r="I71" t="n">
-        <v>0.799525866570993</v>
+        <v>0.2512628661568325</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4128498551005858</v>
+        <v>1.342861033093196</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001692755441857586</v>
+        <v>0.001471331078209042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0002802846404011719</v>
+        <v>4.886582579005064e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.148066169163721e-05</v>
+        <v>5.671345781969373e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>4.170629432741494e-05</v>
+        <v>3.286615423170997e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>7.633784590925116e-05</v>
+        <v>5.99674135597527e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>9.534741137004861e-05</v>
+        <v>7.345840770337936e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>3.116712141625038</v>
+        <v>1.847894586324632</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5384874013759868</v>
+        <v>0.7637090891437074</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7791780354062595</v>
+        <v>0.4619736465811581</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00218259381815648</v>
+        <v>0.002230034727262287</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0001501539859645098</v>
+        <v>-0.0001145582890854616</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.455840048700387e-05</v>
+        <v>9.852241552665408e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>4.871280118734354e-05</v>
+        <v>5.121819967557001e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>8.759785457741047e-05</v>
+        <v>9.21722435464477e-05</v>
       </c>
       <c r="G73" t="n">
-        <v>0.000108357415811257</v>
+        <v>0.0001109602270117172</v>
       </c>
       <c r="H73" t="n">
-        <v>1.237894506057471</v>
+        <v>3.01423202965285</v>
       </c>
       <c r="I73" t="n">
-        <v>0.8718209934966381</v>
+        <v>0.5554465354415263</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3094736265143677</v>
+        <v>0.7535580074132125</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003299655605187652</v>
+        <v>0.002058648418763841</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.998395864201389e-05</v>
+        <v>-0.0001182630120646205</v>
       </c>
       <c r="D74" t="n">
-        <v>-5.473027166478031e-07</v>
+        <v>4.696888735506062e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>7.561999105961753e-05</v>
+        <v>4.778310301156161e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0001362794416275387</v>
+        <v>8.469125892139106e-05</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001638932322479079</v>
+        <v>0.0001029335731724625</v>
       </c>
       <c r="H74" t="n">
-        <v>4.248170885707774</v>
+        <v>3.499849956612674</v>
       </c>
       <c r="I74" t="n">
-        <v>0.3734601921101631</v>
+        <v>0.4779011592827039</v>
       </c>
       <c r="J74" t="n">
-        <v>1.062042721426943</v>
+        <v>0.8749624891531684</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.00304268667685354</v>
+        <v>0.001047782911722176</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.0001374531591676529</v>
+        <v>-8.224737162697965e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1.479234912693354e-05</v>
+        <v>5.587663956681732e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>7.033100251447356e-05</v>
+        <v>2.585302723973293e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0001272478060107106</v>
+        <v>4.605701430065202e-05</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0001525726806446871</v>
+        <v>5.519801471560555e-05</v>
       </c>
       <c r="H75" t="n">
-        <v>4.038264020390596</v>
+        <v>2.803510746658318</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4008521455676995</v>
+        <v>0.5912268479357019</v>
       </c>
       <c r="J75" t="n">
-        <v>1.009566005097649</v>
+        <v>0.7008776866645794</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00155324801618906</v>
+        <v>0.0005624094306173774</v>
       </c>
       <c r="C76" t="n">
-        <v>-6.233744322878959e-05</v>
+        <v>-2.613038386522392e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.802902256470989e-06</v>
+        <v>6.036872778038488e-07</v>
       </c>
       <c r="E76" t="n">
-        <v>3.81173995561981e-05</v>
+        <v>1.379001819556206e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>6.897204022238318e-05</v>
+        <v>2.406549540241759e-05</v>
       </c>
       <c r="G76" t="n">
-        <v>8.166287709108537e-05</v>
+        <v>2.92873683297639e-05</v>
       </c>
       <c r="H76" t="n">
-        <v>4.743303499493288</v>
+        <v>1.387480671644867</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3146642781990845</v>
+        <v>0.8463679913635305</v>
       </c>
       <c r="J76" t="n">
-        <v>1.185825874873322</v>
+        <v>0.3468701679112168</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008310520549595677</v>
+        <v>0.0004521324627078339</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.538992858431538e-05</v>
+        <v>3.6655158171686e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>1.545753146025295e-06</v>
+        <v>3.37743637552968e-05</v>
       </c>
       <c r="E77" t="n">
-        <v>2.019342571819021e-05</v>
+        <v>1.129227565254528e-05</v>
       </c>
       <c r="F77" t="n">
-        <v>3.720849254655253e-05</v>
+        <v>2.035070977852762e-05</v>
       </c>
       <c r="G77" t="n">
-        <v>4.375033745473384e-05</v>
+        <v>2.53878750372547e-05</v>
       </c>
       <c r="H77" t="n">
-        <v>1.44349606394941</v>
+        <v>4.174197263456412</v>
       </c>
       <c r="I77" t="n">
-        <v>0.8366010544542937</v>
+        <v>0.3829438386066184</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3608740159873525</v>
+        <v>1.043549315864103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006745977386631288</v>
+        <v>0.001016899017008687</v>
       </c>
       <c r="C78" t="n">
-        <v>9.273534218650465e-05</v>
+        <v>0.0001653124276812188</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.644997445408598e-05</v>
+        <v>0.0001005866157767082</v>
       </c>
       <c r="E78" t="n">
-        <v>1.666944413297153e-05</v>
+        <v>2.412650397858534e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>3.037681305922645e-05</v>
+        <v>4.467688892078919e-05</v>
       </c>
       <c r="G78" t="n">
-        <v>3.755947564902541e-05</v>
+        <v>5.615345676254292e-05</v>
       </c>
       <c r="H78" t="n">
-        <v>2.842829823673455</v>
+        <v>6.463465482335463</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5844623768635875</v>
+        <v>0.1671069586696195</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7107074559183637</v>
+        <v>1.615866370583866</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001518255671217701</v>
+        <v>0.001140687492383807</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0003436882327522154</v>
+        <v>0.000201206292998019</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.521953965295073e-05</v>
+        <v>0.0001287731215288443</v>
       </c>
       <c r="E79" t="n">
-        <v>3.579913867982105e-05</v>
+        <v>2.78693451757911e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>6.514028743359697e-05</v>
+        <v>5.170018804694218e-05</v>
       </c>
       <c r="G79" t="n">
-        <v>8.295213826434857e-05</v>
+        <v>6.523466553867782e-05</v>
       </c>
       <c r="H79" t="n">
-        <v>2.442761081090316</v>
+        <v>8.591191437181703</v>
       </c>
       <c r="I79" t="n">
-        <v>0.6549137883636491</v>
+        <v>0.07217076442175284</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6106902702725789</v>
+        <v>2.147797859295426</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001701858985474557</v>
+        <v>0.0008266202971454033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.000426768055687164</v>
+        <v>0.0001795802008926333</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.965098721035162e-05</v>
+        <v>8.973689091748647e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>4.127070261180587e-05</v>
+        <v>1.97146962718741e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>7.539033053765676e-05</v>
+        <v>3.687420646888931e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>9.598685841666163e-05</v>
+        <v>4.648348428201617e-05</v>
       </c>
       <c r="H80" t="n">
-        <v>3.646272907224264</v>
+        <v>9.25779782523211</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4559883723045874</v>
+        <v>0.0549690453164872</v>
       </c>
       <c r="J80" t="n">
-        <v>0.9115682268060661</v>
+        <v>2.314449456308028</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>0.00123996334352091</v>
+        <v>0.0004393823180324891</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0003792967646935226</v>
+        <v>6.303677915203227e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-5.829991731148387e-05</v>
+        <v>4.454890817223614e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>2.940168878300789e-05</v>
+        <v>1.097098104393626e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>5.309110263255467e-05</v>
+        <v>2.01947565310273e-05</v>
       </c>
       <c r="G81" t="n">
-        <v>6.844633940115643e-05</v>
+        <v>2.527265859621263e-05</v>
       </c>
       <c r="H81" t="n">
-        <v>1.046601008566723</v>
+        <v>8.178728530732586</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9026493307062342</v>
+        <v>0.0852462338630742</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2616502521416808</v>
+        <v>2.044682132683147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006578616249005651</v>
+        <v>0.000259675847708712</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0001498283979459077</v>
+        <v>2.75282259666598e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.621802569523375e-05</v>
+        <v>2.394315912131667e-05</v>
       </c>
       <c r="E82" t="n">
-        <v>1.626243145989144e-05</v>
+        <v>6.643937525526997e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>2.955809051985004e-05</v>
+        <v>1.215020033367314e-05</v>
       </c>
       <c r="G82" t="n">
-        <v>3.720184190929513e-05</v>
+        <v>1.508574169003653e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>2.069333688162058</v>
+        <v>6.679552974094296</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7230081737435243</v>
+        <v>0.1538228534508106</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5173334220405145</v>
+        <v>1.669888243523574</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003906813596474118</v>
+        <v>0.0002163196531739345</v>
       </c>
       <c r="C83" t="n">
-        <v>7.392280303741069e-05</v>
+        <v>9.318152405299042e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.244017549848855e-05</v>
+        <v>1.918927000723041e-05</v>
       </c>
       <c r="E83" t="n">
-        <v>9.871443590630017e-06</v>
+        <v>5.583659205804975e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>1.790243989768975e-05</v>
+        <v>9.986713964235517e-06</v>
       </c>
       <c r="G83" t="n">
-        <v>2.234586197021546e-05</v>
+        <v>1.234990448367371e-05</v>
       </c>
       <c r="H83" t="n">
-        <v>1.787541697280227</v>
+        <v>3.43606910624063</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7747608721988214</v>
+        <v>0.4876655166810592</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4468854243200568</v>
+        <v>0.8590172765601576</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003216664382649392</v>
+        <v>0.0001134891134144898</v>
       </c>
       <c r="C84" t="n">
-        <v>3.332951978758886e-05</v>
+        <v>9.286788011685546e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>5.72489670830177e-06</v>
+        <v>2.637221039180119e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>8.199768115393365e-06</v>
+        <v>2.995739793938198e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>1.506947721482332e-05</v>
+        <v>5.305942953189143e-06</v>
       </c>
       <c r="G84" t="n">
-        <v>1.834785178348997e-05</v>
+        <v>6.644835833722812e-06</v>
       </c>
       <c r="H84" t="n">
-        <v>5.265675190652599</v>
+        <v>2.317721218439523</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2611073781519643</v>
+        <v>0.677544515785681</v>
       </c>
       <c r="J84" t="n">
-        <v>1.31641879766315</v>
+        <v>0.5794303046098808</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>0.000167360976594671</v>
+        <v>5.967238544210427e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>2.264465622953494e-05</v>
+        <v>5.595336943411591e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>-6.041649111098726e-06</v>
+        <v>1.698063603288919e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>4.368697081585019e-06</v>
+        <v>1.695976422283584e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>7.929882972333643e-06</v>
+        <v>2.96566164478519e-06</v>
       </c>
       <c r="G85" t="n">
-        <v>9.770329645693598e-06</v>
+        <v>3.79291312902765e-06</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4861986017004065</v>
+        <v>5.663347023237627</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9748305641359346</v>
+        <v>0.2257398936308125</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1215496504251016</v>
+        <v>1.415836755809407</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>8.794089570075378e-05</v>
+        <v>4.542291754971085e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.203177236636019e-05</v>
+        <v>3.657706967418112e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.395522149037447e-06</v>
+        <v>3.831747195032177e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>2.45865531609268e-06</v>
+        <v>1.292291519104755e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>4.514844726032421e-06</v>
+        <v>2.2727785517096e-06</v>
       </c>
       <c r="G86" t="n">
-        <v>5.599451076294033e-06</v>
+        <v>2.889627042010601e-06</v>
       </c>
       <c r="H86" t="n">
-        <v>3.512646533729095</v>
+        <v>5.936979814523076</v>
       </c>
       <c r="I86" t="n">
-        <v>0.475958018569667</v>
+        <v>0.2039043513689431</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8781616334322737</v>
+        <v>1.484244953630769</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>6.745381315622763e-05</v>
+        <v>3.646682054734993e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>9.113319010602635e-06</v>
+        <v>3.318508370783171e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.659375006328795e-06</v>
+        <v>2.625216869114717e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>1.882575475783067e-06</v>
+        <v>9.790296885042794e-07</v>
       </c>
       <c r="F87" t="n">
-        <v>3.442651090641838e-06</v>
+        <v>1.733258829041546e-06</v>
       </c>
       <c r="G87" t="n">
-        <v>4.259431122188412e-06</v>
+        <v>2.170113798987149e-06</v>
       </c>
       <c r="H87" t="n">
-        <v>2.747496218399935</v>
+        <v>0.345673445359073</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6009293396832454</v>
+        <v>0.9866781725335718</v>
       </c>
       <c r="J87" t="n">
-        <v>0.6868740545999839</v>
+        <v>0.08641836133976824</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>5.423014730083963e-05</v>
+        <v>3.374308830791889e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>5.033689184164237e-06</v>
+        <v>4.48560804222946e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>1.530637586228951e-06</v>
+        <v>2.11912684754674e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>1.428761485870614e-06</v>
+        <v>9.834808259294685e-07</v>
       </c>
       <c r="F88" t="n">
-        <v>2.663749194525477e-06</v>
+        <v>1.748487103293318e-06</v>
       </c>
       <c r="G88" t="n">
-        <v>3.222930092972299e-06</v>
+        <v>2.187011795726043e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>1.645659062716417</v>
+        <v>2.9285452155781</v>
       </c>
       <c r="I88" t="n">
-        <v>0.800563399356547</v>
+        <v>0.5698535209549813</v>
       </c>
       <c r="J88" t="n">
-        <v>0.4114147656791043</v>
+        <v>0.732136303894525</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.990943413281275e-05</v>
+        <v>4.578264435611982e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>8.377326161488325e-06</v>
+        <v>4.46566233412354e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.0680301874733e-06</v>
+        <v>3.41161609377063e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1.431603541619453e-06</v>
+        <v>1.342401386866001e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>2.636596469251095e-06</v>
+        <v>2.339648974156737e-06</v>
       </c>
       <c r="G89" t="n">
-        <v>3.221662213013048e-06</v>
+        <v>2.976093254472289e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>0.7117534107220888</v>
+        <v>2.767382492506834</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9498716153785921</v>
+        <v>0.5974760878946505</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1779383526805222</v>
+        <v>0.6918456231267086</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>6.805144495568246e-05</v>
+        <v>8.258918217296961e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.003039648908948e-05</v>
+        <v>9.494311677571055e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>1.592101103584442e-06</v>
+        <v>3.594051829170994e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>1.941738627717949e-06</v>
+        <v>2.392004807783405e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>3.619086870783804e-06</v>
+        <v>4.177254668741962e-06</v>
       </c>
       <c r="G90" t="n">
-        <v>4.41210145279745e-06</v>
+        <v>5.303518753117035e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>1.64278292137124</v>
+        <v>2.337116616076218</v>
       </c>
       <c r="I90" t="n">
-        <v>0.8010830031546632</v>
+        <v>0.6740198378736271</v>
       </c>
       <c r="J90" t="n">
-        <v>0.41069573034281</v>
+        <v>0.5842791540190545</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000121290882445499</v>
+        <v>9.31073538882677e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>1.447860592035114e-05</v>
+        <v>4.957045263134292e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>3.849872906920815e-06</v>
+        <v>5.816718262116138e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>3.462179658197565e-06</v>
+        <v>2.624241214212975e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>6.420853683747601e-06</v>
+        <v>4.66820012822591e-06</v>
       </c>
       <c r="G91" t="n">
-        <v>7.852768175081916e-06</v>
+        <v>5.781198970224363e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>3.715828023331515</v>
+        <v>2.8228797194619</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4458280142962963</v>
+        <v>0.5878897559979286</v>
       </c>
       <c r="J91" t="n">
-        <v>0.9289570058328787</v>
+        <v>0.705719929865475</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001392001199903795</v>
+        <v>0.0001134628303897611</v>
       </c>
       <c r="C92" t="n">
-        <v>1.490416737878728e-05</v>
+        <v>8.31518399148938e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>-3.556799551887661e-06</v>
+        <v>1.303106599022811e-05</v>
       </c>
       <c r="E92" t="n">
-        <v>3.858410901288813e-06</v>
+        <v>3.107192959660507e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>6.977214557519092e-06</v>
+        <v>5.590363471567173e-06</v>
       </c>
       <c r="G92" t="n">
-        <v>8.556033965768451e-06</v>
+        <v>6.923872064183823e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>2.50324166121891</v>
+        <v>1.873142560182883</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6440554174914477</v>
+        <v>0.759076852270911</v>
       </c>
       <c r="J92" t="n">
-        <v>0.6258104153047275</v>
+        <v>0.4682856400457207</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001686282348872446</v>
+        <v>0.0001721244182282583</v>
       </c>
       <c r="C93" t="n">
-        <v>2.261479121372015e-05</v>
+        <v>1.609186717203457e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>1.519526476660943e-06</v>
+        <v>1.467965228700455e-05</v>
       </c>
       <c r="E93" t="n">
-        <v>4.57050247764105e-06</v>
+        <v>4.510016055079844e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>8.375353794164484e-06</v>
+        <v>8.126002343501789e-06</v>
       </c>
       <c r="G93" t="n">
-        <v>1.023250289145219e-05</v>
+        <v>1.009824608376459e-05</v>
       </c>
       <c r="H93" t="n">
-        <v>2.406518070436265</v>
+        <v>2.998524836076548</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6614496644492023</v>
+        <v>0.5580722958826894</v>
       </c>
       <c r="J93" t="n">
-        <v>0.6016295176090664</v>
+        <v>0.7496312090191369</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002559477512855861</v>
+        <v>0.0003605671229224687</v>
       </c>
       <c r="C94" t="n">
-        <v>4.13483849008662e-05</v>
+        <v>5.213997876314221e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.861290248514241e-06</v>
+        <v>3.656863278285601e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>6.621379553836593e-06</v>
+        <v>9.274771666164085e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.21022115074147e-05</v>
+        <v>1.7060033761588e-05</v>
       </c>
       <c r="G94" t="n">
-        <v>1.497185353356577e-05</v>
+        <v>2.148653712409209e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>2.612857811642896</v>
+        <v>13.32388015721024</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6245471163885211</v>
+        <v>0.00979704124220333</v>
       </c>
       <c r="J94" t="n">
-        <v>0.6532144529107239</v>
+        <v>3.330970039302561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005434693804299464</v>
+        <v>0.0004547168192098397</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0001430697271002927</v>
+        <v>8.258356678465158e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>-5.235443845060873e-05</v>
+        <v>4.225186362034992e-05</v>
       </c>
       <c r="E95" t="n">
-        <v>1.379712294438967e-05</v>
+        <v>1.109931545938608e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>2.465951261579578e-05</v>
+        <v>2.027317291782965e-05</v>
       </c>
       <c r="G95" t="n">
-        <v>3.165919918166171e-05</v>
+        <v>2.583075777036568e-05</v>
       </c>
       <c r="H95" t="n">
-        <v>3.433046646585715</v>
+        <v>5.589975274022755</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4881314959403467</v>
+        <v>0.2319330598977328</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8582616616464287</v>
+        <v>1.397493818505689</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006779544057382148</v>
+        <v>0.0003766486701619357</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001578095022144716</v>
+        <v>6.275432726214223e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>1.173197066381155e-07</v>
+        <v>2.035755485202851e-05</v>
       </c>
       <c r="E96" t="n">
-        <v>1.636470031964993e-05</v>
+        <v>9.170928849166195e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>3.017506648570709e-05</v>
+        <v>1.663074881237387e-05</v>
       </c>
       <c r="G96" t="n">
-        <v>3.81238984591299e-05</v>
+        <v>2.11082688695423e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>2.48259412966529</v>
+        <v>4.403607770958815</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6477552725714676</v>
+        <v>0.3541305954114504</v>
       </c>
       <c r="J96" t="n">
-        <v>0.6206485324163226</v>
+        <v>1.100901942739704</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005590959601993212</v>
+        <v>0.0001809709834906233</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001168452171391567</v>
+        <v>3.29768291309768e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.832648952269905e-06</v>
+        <v>1.930949487425124e-05</v>
       </c>
       <c r="E97" t="n">
-        <v>1.346783016561027e-05</v>
+        <v>4.883613531999857e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>2.488391200802179e-05</v>
+        <v>8.725839422633325e-06</v>
       </c>
       <c r="G97" t="n">
-        <v>3.119737769620894e-05</v>
+        <v>1.120704457490727e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>1.276448453366942</v>
+        <v>3.161623442613519</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8653585406287094</v>
+        <v>0.5311516256198422</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3191121133417356</v>
+        <v>0.7904058606533798</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002677043963869258</v>
+        <v>8.65702136208824e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.925733580491892e-05</v>
+        <v>1.585379414965318e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>9.664317103882806e-06</v>
+        <v>7.904688093940914e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>7.090108763280468e-06</v>
+        <v>2.515880366036001e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>1.330780431418842e-05</v>
+        <v>4.468342162951224e-06</v>
       </c>
       <c r="G98" t="n">
-        <v>1.660185159799599e-05</v>
+        <v>5.69668110243833e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>2.594268426242376</v>
+        <v>4.051743836997887</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6278387824107745</v>
+        <v>0.3990483741266974</v>
       </c>
       <c r="J98" t="n">
-        <v>0.648567106560594</v>
+        <v>1.012935959249472</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001291458700294583</v>
+        <v>5.373210302611565e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3.202338139312271e-05</v>
+        <v>1.037625224314367e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>7.49395415719701e-07</v>
+        <v>6.454005205281968e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>3.647841215661117e-06</v>
+        <v>1.594643337907183e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>6.866334551395381e-06</v>
+        <v>2.843796776899145e-06</v>
       </c>
       <c r="G99" t="n">
-        <v>8.467504454413192e-06</v>
+        <v>3.605826418406426e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5088245802502648</v>
+        <v>2.296350796327577</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9726362388425437</v>
+        <v>0.6814335293880256</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1272061450625662</v>
+        <v>0.5740876990818942</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>7.985141279693942e-05</v>
+        <v>2.952423795346807e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.103418435710584e-05</v>
+        <v>5.692846984765705e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>2.497934412293824e-06</v>
+        <v>1.141493171702737e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>2.310759537326304e-06</v>
+        <v>9.256554581597477e-07</v>
       </c>
       <c r="F100" t="n">
-        <v>4.356837150114939e-06</v>
+        <v>1.61965380936388e-06</v>
       </c>
       <c r="G100" t="n">
-        <v>5.35036602800701e-06</v>
+        <v>2.06801182640715e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>1.372914910652706</v>
+        <v>4.655253268788712</v>
       </c>
       <c r="I100" t="n">
-        <v>0.8488886065699264</v>
+        <v>0.3245332421600774</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3432287276631765</v>
+        <v>1.163813317197178</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>4.359624892216887e-05</v>
+        <v>1.93027159083966e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.072817751302426e-05</v>
+        <v>2.342533752392483e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.596245866593334e-06</v>
+        <v>-2.324055158148367e-07</v>
       </c>
       <c r="E101" t="n">
-        <v>1.325017990487822e-06</v>
+        <v>5.971067287116709e-07</v>
       </c>
       <c r="F101" t="n">
-        <v>2.495590258497859e-06</v>
+        <v>1.010284618358477e-06</v>
       </c>
       <c r="G101" t="n">
-        <v>3.045502774635284e-06</v>
+        <v>1.320227702562879e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5137488229291316</v>
+        <v>2.429214467620281</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9721488015997904</v>
+        <v>0.6573542798385497</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1284372057322829</v>
+        <v>0.6073036169050703</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>2.812244726150871e-05</v>
+        <v>1.317196879832352e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>3.478805253639844e-06</v>
+        <v>1.481113447821541e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>-3.822222586112118e-07</v>
+        <v>1.855228507407259e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>8.441515595810187e-07</v>
+        <v>4.64878216080537e-07</v>
       </c>
       <c r="F102" t="n">
-        <v>1.595386344251061e-06</v>
+        <v>8.242433410094497e-07</v>
       </c>
       <c r="G102" t="n">
-        <v>1.943438478890544e-06</v>
+        <v>1.017896105723229e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>1.867832846085807</v>
+        <v>3.621755844153251</v>
       </c>
       <c r="I102" t="n">
-        <v>0.7600513809266267</v>
+        <v>0.4596081227050348</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4669582115214517</v>
+        <v>0.9054389610383127</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>2.005535538342563e-05</v>
+        <v>1.272617643565598e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.751714230177104e-06</v>
+        <v>2.31613769712819e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>2.358273607673424e-06</v>
+        <v>1.844800857246067e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>6.830593267790612e-07</v>
+        <v>4.935250010320531e-07</v>
       </c>
       <c r="F103" t="n">
-        <v>1.30018567852934e-06</v>
+        <v>8.369466699267886e-07</v>
       </c>
       <c r="G103" t="n">
-        <v>1.53335550502267e-06</v>
+        <v>1.093397603582182e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>4.300969420581417</v>
+        <v>4.608976225938994</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3668037214219076</v>
+        <v>0.3298205585865168</v>
       </c>
       <c r="J103" t="n">
-        <v>1.075242355145354</v>
+        <v>1.152244056484748</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>1.975260911769465e-05</v>
+        <v>1.550273045835626e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>3.025828464627069e-06</v>
+        <v>2.938043736202653e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>1.812708765845133e-06</v>
+        <v>9.095354644946954e-07</v>
       </c>
       <c r="E104" t="n">
-        <v>7.106705648436277e-07</v>
+        <v>4.858261777529835e-07</v>
       </c>
       <c r="F104" t="n">
-        <v>1.40648122133062e-06</v>
+        <v>8.416041287397727e-07</v>
       </c>
       <c r="G104" t="n">
-        <v>1.659187290643945e-06</v>
+        <v>1.11964716474535e-06</v>
       </c>
       <c r="H104" t="n">
-        <v>1.375603506969693</v>
+        <v>4.981550668976043</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8484239654881154</v>
+        <v>0.2891957559139359</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3439008767424231</v>
+        <v>1.245387667244011</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>2.286114505239086e-05</v>
+        <v>2.901809408480575e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>4.027308372614897e-06</v>
+        <v>-8.577328521954923e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>1.233258075049659e-06</v>
+        <v>4.906741127020306e-07</v>
       </c>
       <c r="E105" t="n">
-        <v>7.011097551266667e-07</v>
+        <v>9.37512179679572e-07</v>
       </c>
       <c r="F105" t="n">
-        <v>1.319255913248736e-06</v>
+        <v>1.60924125783392e-06</v>
       </c>
       <c r="G105" t="n">
-        <v>1.659882053037369e-06</v>
+        <v>1.980193164875396e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>5.794642952301102</v>
+        <v>2.788822086112702</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2150183383248137</v>
+        <v>0.5937637574404235</v>
       </c>
       <c r="J105" t="n">
-        <v>1.448660738075275</v>
+        <v>0.6972055215281756</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>4.303010775096208e-05</v>
+        <v>4.155044961077943e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>3.174713665113632e-06</v>
+        <v>-1.272861071993168e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.647239592029868e-06</v>
+        <v>1.617057360271814e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>1.356296383937414e-06</v>
+        <v>1.162247696556665e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>2.4984368848317e-06</v>
+        <v>2.006809921923088e-06</v>
       </c>
       <c r="G106" t="n">
-        <v>2.95134285471358e-06</v>
+        <v>2.492026456013917e-06</v>
       </c>
       <c r="H106" t="n">
-        <v>2.554501264078938</v>
+        <v>2.391722455942201</v>
       </c>
       <c r="I106" t="n">
-        <v>0.6349038049379336</v>
+        <v>0.6641236682971954</v>
       </c>
       <c r="J106" t="n">
-        <v>0.6386253160197345</v>
+        <v>0.5979306139855504</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>6.236254404875532e-05</v>
+        <v>5.309462698797256e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.888089080329908e-06</v>
+        <v>-3.456827937556664e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>1.202947579120712e-06</v>
+        <v>1.16117718225621e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>1.71334467498856e-06</v>
+        <v>1.498882524345083e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>3.18006983198464e-06</v>
+        <v>2.607933165371629e-06</v>
       </c>
       <c r="G107" t="n">
-        <v>3.741559076922819e-06</v>
+        <v>3.13846566067291e-06</v>
       </c>
       <c r="H107" t="n">
-        <v>2.369461862846895</v>
+        <v>1.693049118157072</v>
       </c>
       <c r="I107" t="n">
-        <v>0.6681528902782241</v>
+        <v>0.7919798705078778</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5923654657117238</v>
+        <v>0.423262279539268</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>7.828975085040718e-05</v>
+        <v>5.40466469083233e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.097884556309562e-06</v>
+        <v>-1.669515886805524e-07</v>
       </c>
       <c r="D108" t="n">
-        <v>-2.28275600540463e-06</v>
+        <v>5.280989228564437e-07</v>
       </c>
       <c r="E108" t="n">
-        <v>2.188873963051515e-06</v>
+        <v>1.371986482688066e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>4.090199282012104e-06</v>
+        <v>2.394158407710298e-06</v>
       </c>
       <c r="G108" t="n">
-        <v>4.636689115455678e-06</v>
+        <v>2.966760686088645e-06</v>
       </c>
       <c r="H108" t="n">
-        <v>2.310384246944839</v>
+        <v>1.434321890677441</v>
       </c>
       <c r="I108" t="n">
-        <v>0.6788790808384932</v>
+        <v>0.8382083083129486</v>
       </c>
       <c r="J108" t="n">
-        <v>0.5775960617362097</v>
+        <v>0.3585804726693603</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>8.005925344729428e-05</v>
+        <v>5.47251312330563e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.189892187318062e-06</v>
+        <v>2.679807197291158e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>-2.369932479211282e-07</v>
+        <v>8.495930467057291e-07</v>
       </c>
       <c r="E109" t="n">
-        <v>2.007198513529048e-06</v>
+        <v>1.511443846625376e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>3.709470961127657e-06</v>
+        <v>2.584390364679374e-06</v>
       </c>
       <c r="G109" t="n">
-        <v>4.413256196657867e-06</v>
+        <v>3.31238289908047e-06</v>
       </c>
       <c r="H109" t="n">
-        <v>1.236874668410629</v>
+        <v>3.685790996296107</v>
       </c>
       <c r="I109" t="n">
-        <v>0.8719909278138743</v>
+        <v>0.4501959152442823</v>
       </c>
       <c r="J109" t="n">
-        <v>0.3092186671026572</v>
+        <v>0.9214477490740267</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>8.051343327940105e-05</v>
+        <v>5.242434920457305e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.83279452594723e-06</v>
+        <v>1.761865975014508e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>2.766348476032339e-07</v>
+        <v>3.425522875418231e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>2.178698562820707e-06</v>
+        <v>1.33844540259382e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>4.073074980100918e-06</v>
+        <v>2.360219018545027e-06</v>
       </c>
       <c r="G110" t="n">
-        <v>4.894085151372615e-06</v>
+        <v>2.96222894134995e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>4.411724388504501</v>
+        <v>3.302878737248101</v>
       </c>
       <c r="I110" t="n">
-        <v>0.3531433814789625</v>
+        <v>0.5084762766801751</v>
       </c>
       <c r="J110" t="n">
-        <v>1.102931097126125</v>
+        <v>0.8257196843120251</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>7.730201155738413e-05</v>
+        <v>5.420538810289613e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>4.108230398532909e-06</v>
+        <v>1.873460491500929e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>2.931869825201357e-06</v>
+        <v>2.18799023686333e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>1.951689723933494e-06</v>
+        <v>1.394515357364506e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>3.597493516551698e-06</v>
+        <v>2.438947237975429e-06</v>
       </c>
       <c r="G111" t="n">
-        <v>4.381808086239735e-06</v>
+        <v>3.088796795443164e-06</v>
       </c>
       <c r="H111" t="n">
-        <v>3.348731314731211</v>
+        <v>6.385746565605628</v>
       </c>
       <c r="I111" t="n">
-        <v>0.5012484249690992</v>
+        <v>0.1721331392491708</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8371828286828028</v>
+        <v>1.596436641401407</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>8.053737828075074e-05</v>
+        <v>5.484264083253762e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.133281569838044e-06</v>
+        <v>4.332683378820551e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>2.505312367466099e-06</v>
+        <v>3.831554833100143e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>2.040405434542258e-06</v>
+        <v>1.509048478153629e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>3.766772205642989e-06</v>
+        <v>2.653171750324585e-06</v>
       </c>
       <c r="G112" t="n">
-        <v>4.585204940613306e-06</v>
+        <v>3.358802346548262e-06</v>
       </c>
       <c r="H112" t="n">
-        <v>5.368715971713251</v>
+        <v>6.777589575529898</v>
       </c>
       <c r="I112" t="n">
-        <v>0.2515127238074939</v>
+        <v>0.1481188726259937</v>
       </c>
       <c r="J112" t="n">
-        <v>1.342178992928313</v>
+        <v>1.694397393882475</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>8.059716834255569e-05</v>
+        <v>5.80642906835599e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>9.867669440087469e-06</v>
+        <v>3.220731125758513e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>3.257399560103997e-07</v>
+        <v>2.763144607964492e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>2.192396126423697e-06</v>
+        <v>1.487697190793486e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>4.047470117422934e-06</v>
+        <v>2.617341061098719e-06</v>
       </c>
       <c r="G113" t="n">
-        <v>4.969384545631878e-06</v>
+        <v>3.256431259150364e-06</v>
       </c>
       <c r="H113" t="n">
-        <v>4.51523024929153</v>
+        <v>0.8015872915690762</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3407453844235769</v>
+        <v>0.9382351392026163</v>
       </c>
       <c r="J113" t="n">
-        <v>1.128807562322883</v>
+        <v>0.200396822892269</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>8.574269057077089e-05</v>
+        <v>6.061715327858496e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>4.219351505983047e-06</v>
+        <v>4.948135170847376e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>5.052717385661175e-06</v>
+        <v>3.83042325485736e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>2.167780681882548e-06</v>
+        <v>1.530944978679094e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>4.062464197705407e-06</v>
+        <v>2.737803172809861e-06</v>
       </c>
       <c r="G114" t="n">
-        <v>4.871873685929901e-06</v>
+        <v>3.413924399630927e-06</v>
       </c>
       <c r="H114" t="n">
-        <v>0.6880865554082445</v>
+        <v>2.027838203783433</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9527899246622027</v>
+        <v>0.7306384951152215</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1720216388520611</v>
+        <v>0.5069595509458582</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>9.03497254728422e-05</v>
+        <v>6.494491923059329e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>8.576556274511867e-06</v>
+        <v>4.720389193025222e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>2.528748466880555e-06</v>
+        <v>2.704929321142873e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2.257625171830667e-06</v>
+        <v>1.650757068658758e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>4.188176499158859e-06</v>
+        <v>2.910990440895135e-06</v>
       </c>
       <c r="G115" t="n">
-        <v>5.100264237796984e-06</v>
+        <v>3.625837552694651e-06</v>
       </c>
       <c r="H115" t="n">
-        <v>2.149675013578844</v>
+        <v>1.190950095711332</v>
       </c>
       <c r="I115" t="n">
-        <v>0.7082524605478961</v>
+        <v>0.8795863662921395</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5374187533947111</v>
+        <v>0.297737523927833</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>9.481460698216047e-05</v>
+        <v>6.554929558358417e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>6.870578821652115e-06</v>
+        <v>5.719449397037179e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>3.990390577143294e-06</v>
+        <v>4.939977226474859e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2.389495770535737e-06</v>
+        <v>1.676670065365667e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>4.451540804753534e-06</v>
+        <v>2.98968666893519e-06</v>
       </c>
       <c r="G116" t="n">
-        <v>5.358079610190282e-06</v>
+        <v>3.774599549195499e-06</v>
       </c>
       <c r="H116" t="n">
-        <v>1.37770029161308</v>
+        <v>2.653471963137753</v>
       </c>
       <c r="I116" t="n">
-        <v>0.8480614039132912</v>
+        <v>0.6173806167305167</v>
       </c>
       <c r="J116" t="n">
-        <v>0.34442507290327</v>
+        <v>0.6633679907844382</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>9.588857785734268e-05</v>
+        <v>6.690475785273653e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.152956594079402e-05</v>
+        <v>4.512186518339599e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>3.186219196129556e-06</v>
+        <v>7.565512933199021e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>2.431428625228708e-06</v>
+        <v>1.798612415545321e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>4.500976637769638e-06</v>
+        <v>3.247293716109898e-06</v>
       </c>
       <c r="G117" t="n">
-        <v>5.551985274833492e-06</v>
+        <v>4.06121415182073e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>2.636073560145446</v>
+        <v>6.656281642659972</v>
       </c>
       <c r="I117" t="n">
-        <v>0.6204463329271497</v>
+        <v>0.1552058865673046</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6590183900363614</v>
+        <v>1.664070410664993</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001002061536052282</v>
+        <v>6.555374177266117e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.21171451926435e-05</v>
+        <v>6.656383047920374e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>8.78702498721413e-07</v>
+        <v>5.22910221736245e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>2.667243805163513e-06</v>
+        <v>1.605037638285001e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>4.880300897504616e-06</v>
+        <v>2.87493293660934e-06</v>
       </c>
       <c r="G118" t="n">
-        <v>6.03810045440104e-06</v>
+        <v>3.63012800172519e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>6.615594987168596</v>
+        <v>2.318162261505146</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1576511272859931</v>
+        <v>0.6774643131078739</v>
       </c>
       <c r="J118" t="n">
-        <v>1.653898746792149</v>
+        <v>0.5795405653762866</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>9.756845695368279e-05</v>
+        <v>6.52453816116822e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.347218519267289e-05</v>
+        <v>6.708797140301309e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>4.168574844158986e-06</v>
+        <v>3.483719419890556e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2.357286468594046e-06</v>
+        <v>1.675042084427731e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>4.37063029496987e-06</v>
+        <v>3.006421893742897e-06</v>
       </c>
       <c r="G119" t="n">
-        <v>5.431527761130284e-06</v>
+        <v>3.744182207584208e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>2.428328405567246</v>
+        <v>4.205002242563033</v>
       </c>
       <c r="I119" t="n">
-        <v>0.6575140110459186</v>
+        <v>0.3789721642783854</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6070821013918115</v>
+        <v>1.051250560640758</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>9.735176622537079e-05</v>
+        <v>5.429408313533508e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.289751589752988e-05</v>
+        <v>4.136378906455351e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>5.2761326509187e-07</v>
+        <v>5.007592769333715e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>2.461780388067795e-06</v>
+        <v>1.400812293080256e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>4.569248989489507e-06</v>
+        <v>2.491808978026665e-06</v>
       </c>
       <c r="G120" t="n">
-        <v>5.563487959779863e-06</v>
+        <v>3.119663107077396e-06</v>
       </c>
       <c r="H120" t="n">
-        <v>3.40169521433668</v>
+        <v>0.6879597192540865</v>
       </c>
       <c r="I120" t="n">
-        <v>0.4929823263146181</v>
+        <v>0.9528053908682149</v>
       </c>
       <c r="J120" t="n">
-        <v>0.8504238035841699</v>
+        <v>0.1719899298135216</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>8.081944266589945e-05</v>
+        <v>5.304155267864307e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>7.669973203195126e-06</v>
+        <v>5.658088501352757e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>4.315457832553446e-06</v>
+        <v>4.968293950221312e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>2.055038788388675e-06</v>
+        <v>1.486367819390085e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>3.823223683397567e-06</v>
+        <v>2.647399282274632e-06</v>
       </c>
       <c r="G121" t="n">
-        <v>4.656400130086814e-06</v>
+        <v>3.374214897143449e-06</v>
       </c>
       <c r="H121" t="n">
-        <v>1.175451768957862</v>
+        <v>7.373545290451587</v>
       </c>
       <c r="I121" t="n">
-        <v>0.8821235500349397</v>
+        <v>0.1174164297064213</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2938629422394655</v>
+        <v>1.843386322612897</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>7.928286831460703e-05</v>
+        <v>4.267330334823559e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.342379456002225e-05</v>
+        <v>5.024490472631948e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>7.701077330904145e-07</v>
+        <v>1.624407206677079e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>2.168992275713557e-06</v>
+        <v>1.131153336944135e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>4.013520386002332e-06</v>
+        <v>1.978208647381857e-06</v>
       </c>
       <c r="G122" t="n">
-        <v>4.984237033364928e-06</v>
+        <v>2.530141875907964e-06</v>
       </c>
       <c r="H122" t="n">
-        <v>4.566899031658438</v>
+        <v>4.336332676089206</v>
       </c>
       <c r="I122" t="n">
-        <v>0.3346885221145697</v>
+        <v>0.362397588249945</v>
       </c>
       <c r="J122" t="n">
-        <v>1.141724757914609</v>
+        <v>1.084083169022302</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>6.320130081869853e-05</v>
+        <v>3.410170449493718e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>7.242027414042712e-06</v>
+        <v>2.839336513910719e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>2.092439789561871e-06</v>
+        <v>1.19729598226466e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>1.649608839246381e-06</v>
+        <v>9.067567440549036e-07</v>
       </c>
       <c r="F123" t="n">
-        <v>3.07962948868032e-06</v>
+        <v>1.594052955796151e-06</v>
       </c>
       <c r="G123" t="n">
-        <v>3.765973271960743e-06</v>
+        <v>1.996134097127156e-06</v>
       </c>
       <c r="H123" t="n">
-        <v>4.053532039141118</v>
+        <v>0.4249587710274803</v>
       </c>
       <c r="I123" t="n">
-        <v>0.3988095516055012</v>
+        <v>0.9803829253662655</v>
       </c>
       <c r="J123" t="n">
-        <v>1.013383009785279</v>
+        <v>0.1062396927568701</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>5.029468989393466e-05</v>
+        <v>3.615465248128747e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>5.269597493209744e-06</v>
+        <v>3.345245080413242e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>3.86455670568016e-07</v>
+        <v>3.17797638615485e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>1.318003161528578e-06</v>
+        <v>1.108250815058388e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>2.456395387742346e-06</v>
+        <v>1.937357241255267e-06</v>
       </c>
       <c r="G124" t="n">
-        <v>2.961390872881419e-06</v>
+        <v>2.436024985242874e-06</v>
       </c>
       <c r="H124" t="n">
-        <v>0.278235875365174</v>
+        <v>1.875800446705723</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9911754532614045</v>
+        <v>0.7585889656209261</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06955896884129349</v>
+        <v>0.4689501116764307</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>5.374696744306446e-05</v>
+        <v>4.576642328192917e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>5.79855860482446e-06</v>
+        <v>6.359341814074913e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>2.505668346706446e-06</v>
+        <v>4.413085471787932e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>1.607673211916047e-06</v>
+        <v>1.232442697413956e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>3.031628262804652e-06</v>
+        <v>2.183430876401856e-06</v>
       </c>
       <c r="G125" t="n">
-        <v>3.612586185442861e-06</v>
+        <v>2.796454387026101e-06</v>
       </c>
       <c r="H125" t="n">
-        <v>1.011116964235975</v>
+        <v>3.198522994051363</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9081056356844293</v>
+        <v>0.5251695417006488</v>
       </c>
       <c r="J125" t="n">
-        <v>0.2527792410589937</v>
+        <v>0.7996307485128407</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>6.79367956247075e-05</v>
+        <v>6.232206198584971e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.1958445634947e-05</v>
+        <v>6.821219394901831e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>1.952917957508682e-06</v>
+        <v>5.936537457132e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>1.794722373479732e-06</v>
+        <v>1.602885569635111e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>3.349740704402263e-06</v>
+        <v>2.884022925315261e-06</v>
       </c>
       <c r="G126" t="n">
-        <v>4.152611830216179e-06</v>
+        <v>3.613354544651799e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>2.76437239179567</v>
+        <v>1.476510018814251</v>
       </c>
       <c r="I126" t="n">
-        <v>0.5979981850099949</v>
+        <v>0.8307941174865389</v>
       </c>
       <c r="J126" t="n">
-        <v>0.6910930979489174</v>
+        <v>0.3691275047035628</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>9.243140812667637e-05</v>
+        <v>6.031488348511882e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.290263260525418e-05</v>
+        <v>6.238682225593133e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>4.587945084714225e-06</v>
+        <v>2.018694355747629e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>2.351773014408291e-06</v>
+        <v>1.554198396858351e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>4.377701898072179e-06</v>
+        <v>2.758442415587794e-06</v>
       </c>
       <c r="G127" t="n">
-        <v>5.362794409196528e-06</v>
+        <v>3.452208679134685e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>1.428657463268099</v>
+        <v>0.8945986699899083</v>
       </c>
       <c r="I127" t="n">
-        <v>0.8391992314081619</v>
+        <v>0.9253344467044723</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3571643658170248</v>
+        <v>0.2236496674974771</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>8.944761907995254e-05</v>
+        <v>9.701395171569707e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>1.094521400650955e-05</v>
+        <v>1.326535008542155e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.640710653140411e-07</v>
+        <v>8.152537688413934e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>2.272033574448496e-06</v>
+        <v>2.460382306298626e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>4.205208685802096e-06</v>
+        <v>4.448310854837312e-06</v>
       </c>
       <c r="G128" t="n">
-        <v>5.121695233173147e-06</v>
+        <v>5.55403338408357e-06</v>
       </c>
       <c r="H128" t="n">
-        <v>0.08449339297810801</v>
+        <v>2.021350657139685</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9991323483167492</v>
+        <v>0.7318317226304</v>
       </c>
       <c r="J128" t="n">
-        <v>0.021123348244527</v>
+        <v>0.5053376642849212</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001445290583612962</v>
+        <v>0.0001790724762100528</v>
       </c>
       <c r="C129" t="n">
-        <v>2.508983945684078e-05</v>
+        <v>2.147601979050248e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.143887154604742e-06</v>
+        <v>6.325772521782117e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>3.624359814654333e-06</v>
+        <v>4.561219110830096e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>6.677111462816961e-06</v>
+        <v>8.209219289260491e-06</v>
       </c>
       <c r="G129" t="n">
-        <v>8.221894806715653e-06</v>
+        <v>1.023931794295163e-05</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3997294456099263</v>
+        <v>4.253722019139429</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9824990488198407</v>
+        <v>0.3727559434584468</v>
       </c>
       <c r="J129" t="n">
-        <v>0.09993236140248159</v>
+        <v>1.063430504784857</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002654218462851948</v>
+        <v>0.0001959134677370861</v>
       </c>
       <c r="C130" t="n">
-        <v>4.651731325884968e-05</v>
+        <v>2.437912675026614e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.568071632227538e-05</v>
+        <v>6.151581205490666e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>6.684380396833459e-06</v>
+        <v>5.089077628326244e-06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.223712881807729e-05</v>
+        <v>9.100230938720749e-06</v>
       </c>
       <c r="G130" t="n">
-        <v>1.50648146971609e-05</v>
+        <v>1.1435349003913e-05</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5106328388533453</v>
+        <v>4.839396283518592</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9724576503959843</v>
+        <v>0.3041768944336496</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1276582097133363</v>
+        <v>1.209849070879648</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002924098546776279</v>
+        <v>0.0002059973343063441</v>
       </c>
       <c r="C131" t="n">
-        <v>5.297401997188036e-05</v>
+        <v>2.517957207279362e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>-1.959240989753738e-05</v>
+        <v>1.925042922426904e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>7.470822180918434e-06</v>
+        <v>5.490216915343684e-06</v>
       </c>
       <c r="F131" t="n">
-        <v>1.364926284675868e-05</v>
+        <v>9.783816791068837e-06</v>
       </c>
       <c r="G131" t="n">
-        <v>1.690132653449153e-05</v>
+        <v>1.246356106961257e-05</v>
       </c>
       <c r="H131" t="n">
-        <v>0.09463599870067094</v>
+        <v>4.794677962142912</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9989151995529194</v>
+        <v>0.3090208562189749</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02365899967516773</v>
+        <v>1.198669490535728</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003083972079370072</v>
+        <v>0.0002357433705071552</v>
       </c>
       <c r="C132" t="n">
-        <v>4.961898062551815e-05</v>
+        <v>4.003925441496414e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.41589589011776e-05</v>
+        <v>8.109839986653543e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>8.062823231832421e-06</v>
+        <v>5.899847418375968e-06</v>
       </c>
       <c r="F132" t="n">
-        <v>1.506154307461126e-05</v>
+        <v>1.05093893407767e-05</v>
       </c>
       <c r="G132" t="n">
-        <v>1.865695080576012e-05</v>
+        <v>1.342031691312918e-05</v>
       </c>
       <c r="H132" t="n">
-        <v>5.613533197772637</v>
+        <v>1.71226704459018</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2299286048887061</v>
+        <v>0.7884881118373439</v>
       </c>
       <c r="J132" t="n">
-        <v>1.403383299443159</v>
+        <v>0.428066761147545</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003479607421837483</v>
+        <v>0.0002681366793096546</v>
       </c>
       <c r="C133" t="n">
-        <v>6.537831936827669e-05</v>
+        <v>3.485863032639576e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>3.287651417677704e-06</v>
+        <v>1.450003308613623e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>8.57928586185629e-06</v>
+        <v>6.571513919814568e-06</v>
       </c>
       <c r="F133" t="n">
-        <v>1.603051236934092e-05</v>
+        <v>1.188532576843327e-05</v>
       </c>
       <c r="G133" t="n">
-        <v>1.982422243059751e-05</v>
+        <v>1.491754836922229e-05</v>
       </c>
       <c r="H133" t="n">
-        <v>0.4478379019749426</v>
+        <v>2.916442458669078</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9783762339800469</v>
+        <v>0.5719045235282452</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1119594754937356</v>
+        <v>0.7291106146672695</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003997001649766632</v>
+        <v>0.0002823949404465356</v>
       </c>
       <c r="C134" t="n">
-        <v>6.793209919950065e-05</v>
+        <v>4.411354213248195e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>-5.405570038694951e-06</v>
+        <v>9.103896803355424e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>9.681114521542251e-06</v>
+        <v>6.889401869241958e-06</v>
       </c>
       <c r="F134" t="n">
-        <v>1.781926786945079e-05</v>
+        <v>1.244123711708848e-05</v>
       </c>
       <c r="G134" t="n">
-        <v>2.206358190955243e-05</v>
+        <v>1.565346616891507e-05</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1469984477866854</v>
+        <v>3.027000454508418</v>
       </c>
       <c r="I134" t="n">
-        <v>0.9974277055084297</v>
+        <v>0.5533171505671733</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03674961194667136</v>
+        <v>0.7567501136271045</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004191769375399968</v>
+        <v>0.0002729044165321484</v>
       </c>
       <c r="C135" t="n">
-        <v>8.052314569811537e-05</v>
+        <v>4.813474829529861e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>-9.597420829373813e-06</v>
+        <v>1.613717543048085e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>1.012185508038212e-05</v>
+        <v>6.862076957705078e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>1.86833621383264e-05</v>
+        <v>1.23511224248732e-05</v>
       </c>
       <c r="G135" t="n">
-        <v>2.316263995920061e-05</v>
+        <v>1.568908391041062e-05</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1686250726042015</v>
+        <v>2.46098616312789</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9966393026093584</v>
+        <v>0.6516351837852399</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04215626815105038</v>
+        <v>0.6152465407819726</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004060053153304156</v>
+        <v>0.000248191843915478</v>
       </c>
       <c r="C136" t="n">
-        <v>8.285381304225139e-05</v>
+        <v>3.684824740234961e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>3.325407254791725e-06</v>
+        <v>1.687397201455607e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>1.006262932100019e-05</v>
+        <v>6.188101343175086e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>1.871915998158738e-05</v>
+        <v>1.124431359839511e-05</v>
       </c>
       <c r="G136" t="n">
-        <v>2.326191648317169e-05</v>
+        <v>1.403058388403492e-05</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2881715107836291</v>
+        <v>3.156652864595412</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9905648884003054</v>
+        <v>0.531960567571705</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07204287769590727</v>
+        <v>0.7891632161488529</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003709549677656545</v>
+        <v>0.0001986155288190323</v>
       </c>
       <c r="C137" t="n">
-        <v>7.108554370564767e-05</v>
+        <v>3.745109453231659e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>-5.284882614985586e-06</v>
+        <v>1.779587537247901e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>9.139074651818212e-06</v>
+        <v>5.155137317545351e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>1.684920697129614e-05</v>
+        <v>9.296198764196702e-06</v>
       </c>
       <c r="G137" t="n">
-        <v>2.082384046021863e-05</v>
+        <v>1.188587749766191e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>0.2879911664948369</v>
+        <v>4.758027480224886</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9905761344878212</v>
+        <v>0.313038257942413</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07199779162370921</v>
+        <v>1.189506870056221</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002953493638771857</v>
+        <v>0.0001397712277168646</v>
       </c>
       <c r="C138" t="n">
-        <v>7.618843326022537e-05</v>
+        <v>2.612917379094013e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>-3.573870744791958e-06</v>
+        <v>1.259739028901209e-05</v>
       </c>
       <c r="E138" t="n">
-        <v>7.529580195810379e-06</v>
+        <v>3.608055843395911e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>1.399062147966196e-05</v>
+        <v>6.632190045666273e-06</v>
       </c>
       <c r="G138" t="n">
-        <v>1.76307157729707e-05</v>
+        <v>8.300312836817014e-06</v>
       </c>
       <c r="H138" t="n">
-        <v>1.808553994238439</v>
+        <v>10.41059622698029</v>
       </c>
       <c r="I138" t="n">
-        <v>0.7709169799268689</v>
+        <v>0.03405104175780052</v>
       </c>
       <c r="J138" t="n">
-        <v>0.4521384985596097</v>
+        <v>2.602649056745072</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002110221969567578</v>
+        <v>9.598496097773475e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>5.608551432223503e-05</v>
+        <v>1.738827025924312e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>-1.25752137121153e-05</v>
+        <v>2.196654606736076e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>5.360549500178153e-06</v>
+        <v>2.611594312299574e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>9.773433032965173e-06</v>
+        <v>4.604780091266502e-06</v>
       </c>
       <c r="G139" t="n">
-        <v>1.22520441886516e-05</v>
+        <v>5.899803366462746e-06</v>
       </c>
       <c r="H139" t="n">
-        <v>0.9297126476921821</v>
+        <v>3.141196853802111</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9202598909705736</v>
+        <v>0.5344806751553914</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2324281619230455</v>
+        <v>0.7852992134505277</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001422401898870142</v>
+        <v>7.799520302221238e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>3.066757756924792e-05</v>
+        <v>1.487803957445241e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>-2.475535312923105e-06</v>
+        <v>7.248827414076608e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>3.790545909049786e-06</v>
+        <v>2.31653786036153e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>7.044101413056343e-06</v>
+        <v>4.031401079112158e-06</v>
       </c>
       <c r="G140" t="n">
-        <v>8.735500111764333e-06</v>
+        <v>5.254112775469452e-06</v>
       </c>
       <c r="H140" t="n">
-        <v>0.4405033592229292</v>
+        <v>1.830506037339379</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9790284786166578</v>
+        <v>0.7668966134370832</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1101258398057323</v>
+        <v>0.4576265093348448</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001154367740570567</v>
+        <v>6.357353435406461e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>2.362818412740059e-05</v>
+        <v>1.202139655619056e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>7.130256219309246e-06</v>
+        <v>2.749870281514507e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>3.341716402416133e-06</v>
+        <v>1.771857675821897e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>6.371146721708663e-06</v>
+        <v>3.13108413477352e-06</v>
       </c>
       <c r="G141" t="n">
-        <v>7.831491999960573e-06</v>
+        <v>3.975039547291217e-06</v>
       </c>
       <c r="H141" t="n">
-        <v>1.774351940333724</v>
+        <v>3.121424360156918</v>
       </c>
       <c r="I141" t="n">
-        <v>0.7771713275077231</v>
+        <v>0.5377149107532999</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4435879850834309</v>
+        <v>0.7803560900392295</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>9.36829424705948e-05</v>
+        <v>5.344779186371237e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>2.054420362516921e-05</v>
+        <v>1.041071001734688e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>3.514371421162036e-07</v>
+        <v>4.552512010549159e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>2.550939341154419e-06</v>
+        <v>1.616992220435233e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>4.819178731644578e-06</v>
+        <v>2.849877378802417e-06</v>
       </c>
       <c r="G142" t="n">
-        <v>5.868980902068914e-06</v>
+        <v>3.676054750385064e-06</v>
       </c>
       <c r="H142" t="n">
-        <v>1.278438890040989</v>
+        <v>4.87982532848716</v>
       </c>
       <c r="I142" t="n">
-        <v>0.8650229292121264</v>
+        <v>0.2998519034195899</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3196097225102473</v>
+        <v>1.21995633212179</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>8.003191352160411e-05</v>
+        <v>5.964991071525563e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.733807461647544e-05</v>
+        <v>1.08989153315556e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>3.230323110986664e-06</v>
+        <v>5.244994811968025e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>2.362446369406658e-06</v>
+        <v>1.819834217473156e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>4.439792858489669e-06</v>
+        <v>3.181884666155033e-06</v>
       </c>
       <c r="G143" t="n">
-        <v>5.490132681938885e-06</v>
+        <v>4.104809485954801e-06</v>
       </c>
       <c r="H143" t="n">
-        <v>1.970992912806839</v>
+        <v>1.286065863119996</v>
       </c>
       <c r="I143" t="n">
-        <v>0.741094249435623</v>
+        <v>0.8637351909163962</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4927482282017098</v>
+        <v>0.321516465779999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>8.897929006132467e-05</v>
+        <v>0.0002225641007911923</v>
       </c>
       <c r="C144" t="n">
-        <v>1.541092205888845e-05</v>
+        <v>4.533293638612202e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>7.228882284295664e-06</v>
+        <v>1.031358696878984e-05</v>
       </c>
       <c r="E144" t="n">
-        <v>2.649263371786433e-06</v>
+        <v>5.863931262524989e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>5.011221236242582e-06</v>
+        <v>1.060198444722183e-05</v>
       </c>
       <c r="G144" t="n">
-        <v>6.161058630372034e-06</v>
+        <v>1.33311398262488e-05</v>
       </c>
       <c r="H144" t="n">
-        <v>1.947904232632071</v>
+        <v>5.725032829762883</v>
       </c>
       <c r="I144" t="n">
-        <v>0.7453402654059935</v>
+        <v>0.2206455915469472</v>
       </c>
       <c r="J144" t="n">
-        <v>0.4869760581580176</v>
+        <v>1.431258207440721</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003298038759508838</v>
+        <v>0.0004213239301090198</v>
       </c>
       <c r="C145" t="n">
-        <v>8.834747568973184e-05</v>
+        <v>8.447384378091775e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.343758670928482e-05</v>
+        <v>4.361844524125276e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>8.568798445504539e-06</v>
+        <v>9.756826572800204e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>1.579888180239498e-05</v>
+        <v>1.816957541476695e-05</v>
       </c>
       <c r="G145" t="n">
-        <v>1.967191129330944e-05</v>
+        <v>2.296368087677431e-05</v>
       </c>
       <c r="H145" t="n">
-        <v>1.082456010385797</v>
+        <v>4.078047389913618</v>
       </c>
       <c r="I145" t="n">
-        <v>0.8970456731431959</v>
+        <v>0.3955463187996712</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2706140025964494</v>
+        <v>1.019511847478404</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006271199261914604</v>
+        <v>0.0004679420490699201</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001547971005733766</v>
+        <v>9.384830578909196e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>1.44716580742321e-05</v>
+        <v>5.211997792835537e-05</v>
       </c>
       <c r="E146" t="n">
-        <v>1.446380574266978e-05</v>
+        <v>1.109697884371533e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>2.662725161258797e-05</v>
+        <v>2.062912971070801e-05</v>
       </c>
       <c r="G146" t="n">
-        <v>3.386667161451033e-05</v>
+        <v>2.593325393663309e-05</v>
       </c>
       <c r="H146" t="n">
-        <v>1.273718063761228</v>
+        <v>3.439776545966237</v>
       </c>
       <c r="I146" t="n">
-        <v>0.8658186089079811</v>
+        <v>0.4870943343495798</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3184295159403069</v>
+        <v>0.8599441364915593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0006980203364937239</v>
+        <v>0.0004920633945198861</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0001713534847181857</v>
+        <v>9.366511353460242e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>1.749105157575833e-05</v>
+        <v>4.86280250340446e-05</v>
       </c>
       <c r="E147" t="n">
-        <v>1.645316492267772e-05</v>
+        <v>1.186046676339387e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>3.037459901560737e-05</v>
+        <v>2.191003094183678e-05</v>
       </c>
       <c r="G147" t="n">
-        <v>3.835636956545622e-05</v>
+        <v>2.76727983580113e-05</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6754004752924258</v>
+        <v>4.451007777231496</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9543275347053342</v>
+        <v>0.3483962818821095</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1688501188231064</v>
+        <v>1.112751944307874</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007345759551344197</v>
+        <v>0.0004812295019451203</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001854421027130562</v>
+        <v>8.998125863815169e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.537314744952611e-07</v>
+        <v>5.484275084222839e-05</v>
       </c>
       <c r="E148" t="n">
-        <v>1.756596199636725e-05</v>
+        <v>1.157811118723136e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>3.222001814158153e-05</v>
+        <v>2.151211144484022e-05</v>
       </c>
       <c r="G148" t="n">
-        <v>4.093181066579391e-05</v>
+        <v>2.70544627135465e-05</v>
       </c>
       <c r="H148" t="n">
-        <v>0.6848461202987219</v>
+        <v>5.018659024325855</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9531844710601469</v>
+        <v>0.2853883156296646</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1712115300746805</v>
+        <v>1.254664756081464</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007195791469344412</v>
+        <v>0.0004814533068235167</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001753899941744545</v>
+        <v>8.592013443026295e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>-8.309548003278353e-07</v>
+        <v>4.283508883170313e-05</v>
       </c>
       <c r="E149" t="n">
-        <v>1.721012307219632e-05</v>
+        <v>1.158175136576416e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>3.146431026830282e-05</v>
+        <v>2.135105768341663e-05</v>
       </c>
       <c r="G149" t="n">
-        <v>3.99217120005706e-05</v>
+        <v>2.693128786653747e-05</v>
       </c>
       <c r="H149" t="n">
-        <v>1.102651332299297</v>
+        <v>4.051201381880541</v>
       </c>
       <c r="I149" t="n">
-        <v>0.893851314722479</v>
+        <v>0.3991208428528575</v>
       </c>
       <c r="J149" t="n">
-        <v>0.2756628330748243</v>
+        <v>1.012800345470135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.000716402181993021</v>
+        <v>0.0005958336363486988</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0001675144857932709</v>
+        <v>0.0001222323920003169</v>
       </c>
       <c r="D150" t="n">
-        <v>1.687622927835182e-07</v>
+        <v>4.116599920502353e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>1.711835928648471e-05</v>
+        <v>1.416711845408635e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>3.133578886378863e-05</v>
+        <v>2.597021133372698e-05</v>
       </c>
       <c r="G150" t="n">
-        <v>3.973505264604398e-05</v>
+        <v>3.313856000279686e-05</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8640809982651685</v>
+        <v>5.135580631482084</v>
       </c>
       <c r="I150" t="n">
-        <v>0.929656468786753</v>
+        <v>0.2736668274288681</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2160202495662921</v>
+        <v>1.283895157870521</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008882907633721978</v>
+        <v>0.0006212640943447996</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002204448257918205</v>
+        <v>0.0001105867031473546</v>
       </c>
       <c r="D151" t="n">
-        <v>-8.545081199671329e-06</v>
+        <v>5.239433508285045e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>2.092596176220999e-05</v>
+        <v>1.460173260215803e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>3.845134943186366e-05</v>
+        <v>2.70711503919638e-05</v>
       </c>
       <c r="G151" t="n">
-        <v>4.89392146055409e-05</v>
+        <v>3.41310650911496e-05</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8656980487393792</v>
+        <v>5.769879451929814</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9294295785519281</v>
+        <v>0.2170055701628713</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2164245121848448</v>
+        <v>1.442469862982453</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009284477036711772</v>
+        <v>0.0006218709723196476</v>
       </c>
       <c r="C152" t="n">
-        <v>0.000219100806221985</v>
+        <v>0.0001082813655225958</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.693022831797592e-05</v>
+        <v>5.264598906374869e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>2.171264707920707e-05</v>
+        <v>1.472906713069685e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>3.95126771803724e-05</v>
+        <v>2.708419461892831e-05</v>
       </c>
       <c r="G152" t="n">
-        <v>5.040185937910519e-05</v>
+        <v>3.41255718974297e-05</v>
       </c>
       <c r="H152" t="n">
-        <v>1.218341890515348</v>
+        <v>4.134410201581707</v>
       </c>
       <c r="I152" t="n">
-        <v>0.8750696115580389</v>
+        <v>0.3881209176542333</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3045854726288369</v>
+        <v>1.033602550395427</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009263297901172772</v>
+        <v>0.0006268895006585215</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0002015102370410126</v>
+        <v>0.0001318526622961851</v>
       </c>
       <c r="D153" t="n">
-        <v>1.006217388841227e-05</v>
+        <v>7.342332878650765e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>2.175894032362487e-05</v>
+        <v>1.4635373405462e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>4.016762066030401e-05</v>
+        <v>2.73993588381103e-05</v>
       </c>
       <c r="G153" t="n">
-        <v>5.049708928258822e-05</v>
+        <v>3.473860603298589e-05</v>
       </c>
       <c r="H153" t="n">
-        <v>1.32420705310053</v>
+        <v>6.648133989424723</v>
       </c>
       <c r="I153" t="n">
-        <v>0.8572552686106156</v>
+        <v>0.1556927754970403</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3310517632751326</v>
+        <v>1.662033497356181</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009375876248748159</v>
+        <v>0.0006374594663919428</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0002540560417141481</v>
+        <v>0.0001311539329304612</v>
       </c>
       <c r="D154" t="n">
-        <v>6.230862048847751e-06</v>
+        <v>5.30250188593241e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>2.178581879642473e-05</v>
+        <v>1.505674943811791e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>3.990452112539832e-05</v>
+        <v>2.760888263820417e-05</v>
       </c>
       <c r="G154" t="n">
-        <v>5.124474756263655e-05</v>
+        <v>3.542511540023243e-05</v>
       </c>
       <c r="H154" t="n">
-        <v>1.805256187607834</v>
+        <v>5.89660868021747</v>
       </c>
       <c r="I154" t="n">
-        <v>0.7715205615688512</v>
+        <v>0.20700379876813</v>
       </c>
       <c r="J154" t="n">
-        <v>0.4513140469019586</v>
+        <v>1.474152170054368</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009465801919624906</v>
+        <v>0.0006286156524217504</v>
       </c>
       <c r="C155" t="n">
-        <v>0.000224512087853315</v>
+        <v>0.0001116839424650581</v>
       </c>
       <c r="D155" t="n">
-        <v>2.720026849144155e-05</v>
+        <v>5.919097487822663e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>2.215057284372313e-05</v>
+        <v>1.479524752145032e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>4.11191414773226e-05</v>
+        <v>2.736001605117861e-05</v>
       </c>
       <c r="G155" t="n">
-        <v>5.227227082099474e-05</v>
+        <v>3.448542266297457e-05</v>
       </c>
       <c r="H155" t="n">
-        <v>3.266331797250269</v>
+        <v>3.655910816077177</v>
       </c>
       <c r="I155" t="n">
-        <v>0.5142843210623639</v>
+        <v>0.4545708789907391</v>
       </c>
       <c r="J155" t="n">
-        <v>0.8165829493125671</v>
+        <v>0.9139777040192943</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009316903713776619</v>
+        <v>0.000617223708246716</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0002113328173757324</v>
+        <v>0.0001086705361110329</v>
       </c>
       <c r="D156" t="n">
-        <v>1.174309412290612e-05</v>
+        <v>5.026524689082069e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>2.183068048881394e-05</v>
+        <v>1.439749579822433e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>4.012201575269054e-05</v>
+        <v>2.652352107555179e-05</v>
       </c>
       <c r="G156" t="n">
-        <v>5.074417996954363e-05</v>
+        <v>3.357867651657795e-05</v>
       </c>
       <c r="H156" t="n">
-        <v>1.430722092991517</v>
+        <v>3.740658603332683</v>
       </c>
       <c r="I156" t="n">
-        <v>0.83883817856377</v>
+        <v>0.4422400082356567</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3576805232478794</v>
+        <v>0.9351646508331707</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009164323993129383</v>
+        <v>0.0005147397089845236</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0002036075917932093</v>
+        <v>9.572627290353907e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>3.893590393165168e-06</v>
+        <v>4.955628161011747e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>2.125779387854971e-05</v>
+        <v>1.188471062112914e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>3.897043796554862e-05</v>
+        <v>2.207166989488732e-05</v>
       </c>
       <c r="G157" t="n">
-        <v>4.946559867261511e-05</v>
+        <v>2.782875969320032e-05</v>
       </c>
       <c r="H157" t="n">
-        <v>0.9828927197327038</v>
+        <v>4.346271358364316</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9123788226635491</v>
+        <v>0.3611667893604139</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2457231799331759</v>
+        <v>1.086567839591079</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007674974952102795</v>
+        <v>0.0003791896666909078</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001765203476194786</v>
+        <v>6.926444023994745e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>7.644106162098545e-06</v>
+        <v>2.800722970029278e-05</v>
       </c>
       <c r="E158" t="n">
-        <v>1.762449160365651e-05</v>
+        <v>9.234578157900583e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>3.23611326881084e-05</v>
+        <v>1.689483387400254e-05</v>
       </c>
       <c r="G158" t="n">
-        <v>4.102936361946318e-05</v>
+        <v>2.139529001695585e-05</v>
       </c>
       <c r="H158" t="n">
-        <v>0.7977976177320605</v>
+        <v>5.202335253491089</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9387430805543091</v>
+        <v>0.2671594806459473</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1994494044330151</v>
+        <v>1.300583813372772</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005628905562394166</v>
+        <v>0.0002767524166901385</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001348861580683509</v>
+        <v>4.585379195290302e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>-8.795843981954554e-06</v>
+        <v>2.137906178120334e-05</v>
       </c>
       <c r="E159" t="n">
-        <v>1.357184265200273e-05</v>
+        <v>6.612196238292125e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>2.49799965873546e-05</v>
+        <v>1.207694673119494e-05</v>
       </c>
       <c r="G159" t="n">
-        <v>3.153604749986075e-05</v>
+        <v>1.516292823905761e-05</v>
       </c>
       <c r="H159" t="n">
-        <v>1.273553316963797</v>
+        <v>2.40223270935855</v>
       </c>
       <c r="I159" t="n">
-        <v>0.865846357166614</v>
+        <v>0.6622238163175364</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3183883292409493</v>
+        <v>0.6005581773396375</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004105222689802775</v>
+        <v>0.0002883086033306753</v>
       </c>
       <c r="C160" t="n">
-        <v>8.762090049488838e-05</v>
+        <v>5.894802450781341e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>3.118421467445233e-06</v>
+        <v>3.181811040523657e-05</v>
       </c>
       <c r="E160" t="n">
-        <v>9.72957513041909e-06</v>
+        <v>7.155538478050902e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>1.79731572437615e-05</v>
+        <v>1.308489266086829e-05</v>
       </c>
       <c r="G160" t="n">
-        <v>2.242535097992455e-05</v>
+        <v>1.675664568201688e-05</v>
       </c>
       <c r="H160" t="n">
-        <v>1.193063958123016</v>
+        <v>6.55774260773904</v>
       </c>
       <c r="I160" t="n">
-        <v>0.8792392664182899</v>
+        <v>0.1611882982406646</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2982659895307541</v>
+        <v>1.63943565193476</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004300600397076108</v>
+        <v>0.0002221198303384071</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0001078656524289561</v>
+        <v>4.667940875919344e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>1.234196443168005e-05</v>
+        <v>1.57639676030126e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>1.052953056634355e-05</v>
+        <v>5.393509183582107e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>1.960064171008045e-05</v>
+        <v>9.826342528914219e-06</v>
       </c>
       <c r="G161" t="n">
-        <v>2.48070228757222e-05</v>
+        <v>1.246343647865506e-05</v>
       </c>
       <c r="H161" t="n">
-        <v>4.362443558232449</v>
+        <v>3.639027317147354</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3591710833048125</v>
+        <v>0.4570560490450249</v>
       </c>
       <c r="J161" t="n">
-        <v>1.090610889558112</v>
+        <v>0.9097568292868385</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003310938095944667</v>
+        <v>0.0002220386951991223</v>
       </c>
       <c r="C162" t="n">
-        <v>8.094495035915891e-05</v>
+        <v>3.949765587551313e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>1.63543018763052e-06</v>
+        <v>1.913313517258472e-05</v>
       </c>
       <c r="E162" t="n">
-        <v>7.929102554971009e-06</v>
+        <v>5.445009259159107e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>1.4749831186223e-05</v>
+        <v>9.915584044122268e-06</v>
       </c>
       <c r="G162" t="n">
-        <v>1.845820799446604e-05</v>
+        <v>1.250030185647731e-05</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5358218341103564</v>
+        <v>2.284361126905943</v>
       </c>
       <c r="I162" t="n">
-        <v>0.969921325800299</v>
+        <v>0.6836177939457656</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1339554585275891</v>
+        <v>0.5710902817264857</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003307711788558928</v>
+        <v>0.0002139780056771204</v>
       </c>
       <c r="C163" t="n">
-        <v>7.18430348373155e-05</v>
+        <v>4.175792788983693e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>7.716623707498739e-06</v>
+        <v>1.838892724112203e-05</v>
       </c>
       <c r="E163" t="n">
-        <v>8.018233277133802e-06</v>
+        <v>5.18759706433012e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>1.493699782214118e-05</v>
+        <v>9.555563702848303e-06</v>
       </c>
       <c r="G163" t="n">
-        <v>1.858342786152418e-05</v>
+        <v>1.203215204558064e-05</v>
       </c>
       <c r="H163" t="n">
-        <v>0.5013508167648856</v>
+        <v>5.305049357893491</v>
       </c>
       <c r="I163" t="n">
-        <v>0.973369343538463</v>
+        <v>0.257404614250549</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1253377041912214</v>
+        <v>1.326262339473373</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003179637302630673</v>
+        <v>0.000197328803071349</v>
       </c>
       <c r="C164" t="n">
-        <v>7.86992288265923e-05</v>
+        <v>3.403880748779949e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.907204145170718e-07</v>
+        <v>1.186031224654013e-05</v>
       </c>
       <c r="E164" t="n">
-        <v>7.639906300358804e-06</v>
+        <v>4.85391671486998e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>1.406705783221561e-05</v>
+        <v>8.773956669537484e-06</v>
       </c>
       <c r="G164" t="n">
-        <v>1.773197806892069e-05</v>
+        <v>1.110982697808004e-05</v>
       </c>
       <c r="H164" t="n">
-        <v>0.5878004824778905</v>
+        <v>2.867741383798852</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9644096355799292</v>
+        <v>0.5801968569428178</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1469501206194726</v>
+        <v>0.716935345949713</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0002928390520948999</v>
+        <v>0.000183419839739366</v>
       </c>
       <c r="C165" t="n">
-        <v>6.317280847873899e-05</v>
+        <v>2.928778890051878e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>7.491249331805839e-07</v>
+        <v>1.075274540489037e-05</v>
       </c>
       <c r="E165" t="n">
-        <v>7.104534065362798e-06</v>
+        <v>4.625884632231671e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>1.317983515068011e-05</v>
+        <v>8.356431757859626e-06</v>
       </c>
       <c r="G165" t="n">
-        <v>1.639906923252282e-05</v>
+        <v>1.058300827884596e-05</v>
       </c>
       <c r="H165" t="n">
-        <v>0.09149493531345487</v>
+        <v>4.877155253896092</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9989849576278507</v>
+        <v>0.3001359556127002</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02287373382836372</v>
+        <v>1.219288813474023</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002720545120223551</v>
+        <v>0.0001747737959840143</v>
       </c>
       <c r="C166" t="n">
-        <v>6.299800714813637e-05</v>
+        <v>3.120528186637613e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.16772006232754e-05</v>
+        <v>1.778875303134206e-05</v>
       </c>
       <c r="E166" t="n">
-        <v>6.784853772499107e-06</v>
+        <v>4.632145733250127e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>1.243752078799642e-05</v>
+        <v>8.322865398230775e-06</v>
       </c>
       <c r="G166" t="n">
-        <v>1.56054864758233e-05</v>
+        <v>1.068818560523893e-05</v>
       </c>
       <c r="H166" t="n">
-        <v>0.4516147872824592</v>
+        <v>6.407547098936135</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9780371050887241</v>
+        <v>0.1707096765377125</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1129036968206148</v>
+        <v>1.601886774734034</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002615842720573016</v>
+        <v>0.0001675593141011447</v>
       </c>
       <c r="C167" t="n">
-        <v>6.707029888776859e-05</v>
+        <v>3.263810613573455e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>-9.87381128916766e-07</v>
+        <v>1.093554435391991e-05</v>
       </c>
       <c r="E167" t="n">
-        <v>6.790265714936231e-06</v>
+        <v>4.134578749264506e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>1.261186580542002e-05</v>
+        <v>7.492623776034148e-06</v>
       </c>
       <c r="G167" t="n">
-        <v>1.591301952196487e-05</v>
+        <v>9.574475376092479e-06</v>
       </c>
       <c r="H167" t="n">
-        <v>2.58324172496029</v>
+        <v>4.028801099838094</v>
       </c>
       <c r="I167" t="n">
-        <v>0.6297946311280623</v>
+        <v>0.402122077098497</v>
       </c>
       <c r="J167" t="n">
-        <v>0.6458104312400725</v>
+        <v>1.007200274959523</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002495700455870365</v>
+        <v>0.000140476862647785</v>
       </c>
       <c r="C168" t="n">
-        <v>5.738897145375281e-05</v>
+        <v>2.098074770845026e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>1.768272651090155e-06</v>
+        <v>1.338208838742454e-05</v>
       </c>
       <c r="E168" t="n">
-        <v>6.08351866181693e-06</v>
+        <v>3.524711142994441e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>1.127666784916991e-05</v>
+        <v>6.41796303119491e-06</v>
       </c>
       <c r="G168" t="n">
-        <v>1.420307459474042e-05</v>
+        <v>8.105971335968175e-06</v>
       </c>
       <c r="H168" t="n">
-        <v>1.60386483824759</v>
+        <v>5.076666155728665</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8080973347620154</v>
+        <v>0.2795211429648685</v>
       </c>
       <c r="J168" t="n">
-        <v>0.4009662095618975</v>
+        <v>1.269166538932166</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002105544826169374</v>
+        <v>0.0001269106507144066</v>
       </c>
       <c r="C169" t="n">
-        <v>4.369944690270668e-05</v>
+        <v>2.170012562917976e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>-3.215229724463399e-06</v>
+        <v>1.293342198973842e-05</v>
       </c>
       <c r="E169" t="n">
-        <v>5.213508421969516e-06</v>
+        <v>3.131136252425954e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>9.564886189351397e-06</v>
+        <v>5.693847435593085e-06</v>
       </c>
       <c r="G169" t="n">
-        <v>1.199288596199872e-05</v>
+        <v>7.219042640592884e-06</v>
       </c>
       <c r="H169" t="n">
-        <v>0.8086676081571668</v>
+        <v>1.757510475830729</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9372822877176473</v>
+        <v>0.7802461845680622</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2021669020392917</v>
+        <v>0.4393776189576822</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.000188512867608902</v>
+        <v>8.071646996762628e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>3.920171555064428e-05</v>
+        <v>1.476526018162333e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>8.079788038020772e-06</v>
+        <v>9.294137162059972e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>4.595286856602219e-06</v>
+        <v>2.337428615543087e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>8.556983696019094e-06</v>
+        <v>4.154265215157064e-06</v>
       </c>
       <c r="G170" t="n">
-        <v>1.068770964298617e-05</v>
+        <v>5.344145919810995e-06</v>
       </c>
       <c r="H170" t="n">
-        <v>0.9820820573005176</v>
+        <v>3.496118702231136</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9125006550091335</v>
+        <v>0.4784687497222494</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2455205143251294</v>
+        <v>0.8740296755577839</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001196720982721602</v>
+        <v>5.983802948090401e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>2.75208923878545e-05</v>
+        <v>1.179679327171566e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>1.817407701062512e-06</v>
+        <v>4.710750455979166e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>3.39646236395537e-06</v>
+        <v>1.641387973503063e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>6.333212379559773e-06</v>
+        <v>2.915434954854536e-06</v>
       </c>
       <c r="G171" t="n">
-        <v>7.875489476371635e-06</v>
+        <v>3.775770136018069e-06</v>
       </c>
       <c r="H171" t="n">
-        <v>1.147422430029137</v>
+        <v>4.51886394255104</v>
       </c>
       <c r="I171" t="n">
-        <v>0.8866769626870143</v>
+        <v>0.3403165609174936</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2868556075072843</v>
+        <v>1.12971598563776</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>8.900072444276621e-05</v>
+        <v>6.600497163521159e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.735811215505785e-05</v>
+        <v>1.444841150346412e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>5.746086504195431e-06</v>
+        <v>4.551132092935851e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>2.394892047960206e-06</v>
+        <v>1.879332338361524e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>4.495021645499885e-06</v>
+        <v>3.305919122054031e-06</v>
       </c>
       <c r="G172" t="n">
-        <v>5.592657896961127e-06</v>
+        <v>4.297774344404509e-06</v>
       </c>
       <c r="H172" t="n">
-        <v>3.135640056265161</v>
+        <v>4.315891469639056</v>
       </c>
       <c r="I172" t="n">
-        <v>0.535388446531158</v>
+        <v>0.3649393868790528</v>
       </c>
       <c r="J172" t="n">
-        <v>0.7839100140662904</v>
+        <v>1.078972867409764</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>9.699483358487033e-05</v>
+        <v>8.821880339716936e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.112586089213136e-05</v>
+        <v>1.38044160895103e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>6.237652465793716e-06</v>
+        <v>5.805071267385171e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>2.701470612925384e-06</v>
+        <v>2.74233064160577e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>5.121380639248491e-06</v>
+        <v>4.833607799115395e-06</v>
       </c>
       <c r="G173" t="n">
-        <v>6.338962886218355e-06</v>
+        <v>6.217064638217511e-06</v>
       </c>
       <c r="H173" t="n">
-        <v>2.752630348529581</v>
+        <v>2.548839759144395</v>
       </c>
       <c r="I173" t="n">
-        <v>0.6000368959178741</v>
+        <v>0.635912147733908</v>
       </c>
       <c r="J173" t="n">
-        <v>0.6881575871323952</v>
+        <v>0.6372099397860986</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001311237254819139</v>
+        <v>0.0001137205254380706</v>
       </c>
       <c r="C174" t="n">
-        <v>2.225279761999145e-05</v>
+        <v>1.888520465773732e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>5.619586325869151e-06</v>
+        <v>1.213289713333459e-05</v>
       </c>
       <c r="E174" t="n">
-        <v>3.995919604930465e-06</v>
+        <v>3.051064053867918e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>7.404682467209515e-06</v>
+        <v>5.563464130685482e-06</v>
       </c>
       <c r="G174" t="n">
-        <v>9.244664719997556e-06</v>
+        <v>6.998594053319977e-06</v>
       </c>
       <c r="H174" t="n">
-        <v>2.212886882359421</v>
+        <v>3.538581905099819</v>
       </c>
       <c r="I174" t="n">
-        <v>0.6966706613109306</v>
+        <v>0.4720361822967479</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5532217205898553</v>
+        <v>0.8846454762749547</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001696339495176041</v>
+        <v>0.0001261335720527543</v>
       </c>
       <c r="C175" t="n">
-        <v>3.884986862590221e-05</v>
+        <v>2.287661158709011e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>1.144993698654301e-06</v>
+        <v>6.030107428049632e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>4.507151281720312e-06</v>
+        <v>3.859335973433331e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>8.189040812037004e-06</v>
+        <v>6.814908413223665e-06</v>
       </c>
       <c r="G175" t="n">
-        <v>1.033238988745252e-05</v>
+        <v>8.73779132247052e-06</v>
       </c>
       <c r="H175" t="n">
-        <v>1.940001981777863</v>
+        <v>3.718136107888856</v>
       </c>
       <c r="I175" t="n">
-        <v>0.7467932207033791</v>
+        <v>0.4454936269863462</v>
       </c>
       <c r="J175" t="n">
-        <v>0.4850004954444658</v>
+        <v>0.9295340269722139</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001860467846057586</v>
+        <v>0.0001728089850224592</v>
       </c>
       <c r="C176" t="n">
-        <v>3.677021185213581e-05</v>
+        <v>3.122135320877023e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>5.245156571513426e-06</v>
+        <v>1.491916789214329e-05</v>
       </c>
       <c r="E176" t="n">
-        <v>5.631165778379605e-06</v>
+        <v>5.589173989452801e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>1.027851185156862e-05</v>
+        <v>9.771174758536198e-06</v>
       </c>
       <c r="G176" t="n">
-        <v>1.295399689177682e-05</v>
+        <v>1.259827921028902e-05</v>
       </c>
       <c r="H176" t="n">
-        <v>4.43126631695543</v>
+        <v>1.95097015289729</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3507754929786012</v>
+        <v>0.7447765042360355</v>
       </c>
       <c r="J176" t="n">
-        <v>1.107816579238857</v>
+        <v>0.4877425382243226</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002563850551192797</v>
+        <v>0.0002587386491283566</v>
       </c>
       <c r="C177" t="n">
-        <v>4.432555205619392e-05</v>
+        <v>4.618603640212638e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>1.633798259797635e-05</v>
+        <v>2.002643136150172e-05</v>
       </c>
       <c r="E177" t="n">
-        <v>8.112533250427723e-06</v>
+        <v>7.507050145142183e-06</v>
       </c>
       <c r="F177" t="n">
-        <v>1.48813035323527e-05</v>
+        <v>1.33163266986294e-05</v>
       </c>
       <c r="G177" t="n">
-        <v>1.862263690381999e-05</v>
+        <v>1.710735942531503e-05</v>
       </c>
       <c r="H177" t="n">
-        <v>2.088572723148141</v>
+        <v>2.658558953746908</v>
       </c>
       <c r="I177" t="n">
-        <v>0.7194720495699902</v>
+        <v>0.6164854889104217</v>
       </c>
       <c r="J177" t="n">
-        <v>0.5221431807870354</v>
+        <v>0.6646397384367271</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003858573052245202</v>
+        <v>0.0003073466811827899</v>
       </c>
       <c r="C178" t="n">
-        <v>7.633980858776993e-05</v>
+        <v>4.975303114483664e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>1.454153318897254e-05</v>
+        <v>2.439889930458774e-05</v>
       </c>
       <c r="E178" t="n">
-        <v>1.101371155079649e-05</v>
+        <v>9.25081830731581e-06</v>
       </c>
       <c r="F178" t="n">
-        <v>2.021438226087301e-05</v>
+        <v>1.630300315645893e-05</v>
       </c>
       <c r="G178" t="n">
-        <v>2.53768778678109e-05</v>
+        <v>2.104167453211406e-05</v>
       </c>
       <c r="H178" t="n">
-        <v>2.844689343342335</v>
+        <v>4.370963624350308</v>
       </c>
       <c r="I178" t="n">
-        <v>0.5841434294322888</v>
+        <v>0.3581231851450458</v>
       </c>
       <c r="J178" t="n">
-        <v>0.7111723358355837</v>
+        <v>1.092740906087577</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004564818027848426</v>
+        <v>0.0003755769911170359</v>
       </c>
       <c r="C179" t="n">
-        <v>8.923519341973185e-05</v>
+        <v>6.834355682293328e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>-3.966569677672001e-06</v>
+        <v>3.848179704667165e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>1.351906193911221e-05</v>
+        <v>1.065913958788587e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>2.465913695686303e-05</v>
+        <v>1.9184636297863e-05</v>
       </c>
       <c r="G179" t="n">
-        <v>3.101435341581122e-05</v>
+        <v>2.445360033677246e-05</v>
       </c>
       <c r="H179" t="n">
-        <v>2.04679326898909</v>
+        <v>2.552396775911819</v>
       </c>
       <c r="I179" t="n">
-        <v>0.7271525176593844</v>
+        <v>0.6352785528893506</v>
       </c>
       <c r="J179" t="n">
-        <v>0.5116983172472725</v>
+        <v>0.6380991939779547</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005552847636279159</v>
+        <v>0.0005019030911133385</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0001255088443611925</v>
+        <v>0.0001112615952869157</v>
       </c>
       <c r="D180" t="n">
-        <v>1.152301057283009e-05</v>
+        <v>8.491461788801545e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>1.55792074841962e-05</v>
+        <v>1.33918705934569e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>2.862955735016478e-05</v>
+        <v>2.462450010264079e-05</v>
       </c>
       <c r="G180" t="n">
-        <v>3.604876933270567e-05</v>
+        <v>3.142601168075987e-05</v>
       </c>
       <c r="H180" t="n">
-        <v>1.415160659775916</v>
+        <v>3.05151212542084</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8415557866865033</v>
+        <v>0.5492422851185675</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3537901649439791</v>
+        <v>0.7628780313552099</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007479745278013882</v>
+        <v>0.0004989993897634522</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0002140251636149153</v>
+        <v>0.0001199283295248123</v>
       </c>
       <c r="D181" t="n">
-        <v>4.149340072912228e-05</v>
+        <v>3.64679713657748e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>1.974372981302225e-05</v>
+        <v>1.217792319013086e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>3.643149349518832e-05</v>
+        <v>2.233449276639784e-05</v>
       </c>
       <c r="G181" t="n">
-        <v>4.649951029375976e-05</v>
+        <v>2.858845822123015e-05</v>
       </c>
       <c r="H181" t="n">
-        <v>2.381075725896143</v>
+        <v>4.210782169341763</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6660498577517471</v>
+        <v>0.3782305214934744</v>
       </c>
       <c r="J181" t="n">
-        <v>0.5952689314740358</v>
+        <v>1.052695542335441</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007431172451756565</v>
+        <v>0.0007526894261568073</v>
       </c>
       <c r="C182" t="n">
-        <v>0.000205224579134054</v>
+        <v>0.0001438909794473781</v>
       </c>
       <c r="D182" t="n">
-        <v>5.980149665742087e-06</v>
+        <v>7.372724510548343e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>1.793937324190968e-05</v>
+        <v>1.960138373043308e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>3.302443224809823e-05</v>
+        <v>3.552411100694607e-05</v>
       </c>
       <c r="G182" t="n">
-        <v>4.219251814192165e-05</v>
+        <v>4.534226752514749e-05</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5581584573959909</v>
+        <v>2.929202768516675</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9675978113318077</v>
+        <v>0.5697422006180801</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1395396143489977</v>
+        <v>0.7323006921291687</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001122361111792372</v>
+        <v>0.0009633180133935657</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0002603795899218197</v>
+        <v>0.0001550542927881303</v>
       </c>
       <c r="D183" t="n">
-        <v>2.348215794709314e-05</v>
+        <v>0.0001216149586435642</v>
       </c>
       <c r="E183" t="n">
-        <v>2.882158987588294e-05</v>
+        <v>2.480986514359911e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>5.336198548586542e-05</v>
+        <v>4.536862570416042e-05</v>
       </c>
       <c r="G183" t="n">
-        <v>6.706973294928065e-05</v>
+        <v>5.786543643633121e-05</v>
       </c>
       <c r="H183" t="n">
-        <v>0.801901775025305</v>
+        <v>7.333125078474844</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9381929231906069</v>
+        <v>0.1192969147412924</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2004754437563263</v>
+        <v>1.833281269618711</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001437258390606288</v>
+        <v>0.001262488129173153</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0003269110362366139</v>
+        <v>0.0002179090338464849</v>
       </c>
       <c r="D184" t="n">
-        <v>2.214153820380817e-05</v>
+        <v>0.0001476667887291029</v>
       </c>
       <c r="E184" t="n">
-        <v>3.662760079851154e-05</v>
+        <v>2.955077543494556e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>6.69124627745089e-05</v>
+        <v>5.441074434872875e-05</v>
       </c>
       <c r="G184" t="n">
-        <v>8.542029778823224e-05</v>
+        <v>6.953624224586599e-05</v>
       </c>
       <c r="H184" t="n">
-        <v>5.132492359344898</v>
+        <v>5.295506672538512</v>
       </c>
       <c r="I184" t="n">
-        <v>0.2739711069142013</v>
+        <v>0.258297855184591</v>
       </c>
       <c r="J184" t="n">
-        <v>1.283123089836224</v>
+        <v>1.323876668134628</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001871598152509836</v>
+        <v>0.001478420066147818</v>
       </c>
       <c r="C185" t="n">
-        <v>0.000387138820584143</v>
+        <v>0.000354276738587569</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0001199267933499584</v>
+        <v>0.0001435952073686863</v>
       </c>
       <c r="E185" t="n">
-        <v>4.355072338642579e-05</v>
+        <v>3.416203433747902e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>8.054914643065668e-05</v>
+        <v>6.359352746734851e-05</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0001026861624797298</v>
+        <v>8.113832283415201e-05</v>
       </c>
       <c r="H185" t="n">
-        <v>4.737403307171899</v>
+        <v>4.133570987427075</v>
       </c>
       <c r="I185" t="n">
-        <v>0.3153178032793184</v>
+        <v>0.3882306911871304</v>
       </c>
       <c r="J185" t="n">
-        <v>1.184350826792975</v>
+        <v>1.033392746856769</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002202842887813152</v>
+        <v>0.001438395614859874</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0006159578361863547</v>
+        <v>0.000270080908080601</v>
       </c>
       <c r="D186" t="n">
-        <v>5.841110877349886e-05</v>
+        <v>0.0001714505292335926</v>
       </c>
       <c r="E186" t="n">
-        <v>5.059529397805028e-05</v>
+        <v>3.208302817937662e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>9.363046272882865e-05</v>
+        <v>6.04369075387682e-05</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0001200317121157995</v>
+        <v>7.646400935303743e-05</v>
       </c>
       <c r="H186" t="n">
-        <v>0.6001794070645292</v>
+        <v>7.627351240178607</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9630437485966306</v>
+        <v>0.1062229952734869</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1500448517661323</v>
+        <v>1.906837810044652</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002144492079608343</v>
+        <v>0.001416300026610696</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0005070837071217083</v>
+        <v>0.0003039184948313616</v>
       </c>
       <c r="D187" t="n">
-        <v>6.09104859526032e-05</v>
+        <v>0.0001240675384144684</v>
       </c>
       <c r="E187" t="n">
-        <v>4.785722845454375e-05</v>
+        <v>3.209178438623055e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>8.737465416780232e-05</v>
+        <v>6.002854384447372e-05</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0001127528483069892</v>
+        <v>7.597995518841042e-05</v>
       </c>
       <c r="H187" t="n">
-        <v>5.283165826829437</v>
+        <v>5.113139923181921</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2594569567775102</v>
+        <v>0.2758843907474242</v>
       </c>
       <c r="J187" t="n">
-        <v>1.320791456707359</v>
+        <v>1.27828498079548</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002112264524840914</v>
+        <v>0.001331046342980817</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0005558283843482705</v>
+        <v>0.0002500379461416205</v>
       </c>
       <c r="D188" t="n">
-        <v>-8.734049778526612e-07</v>
+        <v>0.0001549277020025349</v>
       </c>
       <c r="E188" t="n">
-        <v>4.776414203332619e-05</v>
+        <v>3.045112599133121e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>8.718384557268589e-05</v>
+        <v>5.702373133944983e-05</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0001120173020307812</v>
+        <v>7.22602140463067e-05</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4380759807693707</v>
+        <v>7.9317719989347</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9792424904247937</v>
+        <v>0.09410968936766596</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1095189951923427</v>
+        <v>1.982942999733675</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001986441483292726</v>
+        <v>0.001156262864688409</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0004751540659929419</v>
+        <v>0.0002292369806111669</v>
       </c>
       <c r="D189" t="n">
-        <v>3.821867695074027e-05</v>
+        <v>0.0001407027404828698</v>
       </c>
       <c r="E189" t="n">
-        <v>4.53644875685701e-05</v>
+        <v>2.552189482431198e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>8.284527246495462e-05</v>
+        <v>4.820269165276151e-05</v>
       </c>
       <c r="G189" t="n">
-        <v>0.000106700892693089</v>
+        <v>6.088189125736307e-05</v>
       </c>
       <c r="H189" t="n">
-        <v>5.134949163744374</v>
+        <v>5.698823883192842</v>
       </c>
       <c r="I189" t="n">
-        <v>0.273729020989767</v>
+        <v>0.2227975990139678</v>
       </c>
       <c r="J189" t="n">
-        <v>1.283737290936094</v>
+        <v>1.424705970798211</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001722777765893926</v>
+        <v>0.001098426443494892</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0004214986472646608</v>
+        <v>0.0002227061110499723</v>
       </c>
       <c r="D190" t="n">
-        <v>6.354165221186684e-05</v>
+        <v>0.0001397376438286373</v>
       </c>
       <c r="E190" t="n">
-        <v>3.805582651451633e-05</v>
+        <v>2.447649602654942e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>6.975257648636049e-05</v>
+        <v>4.613357116960156e-05</v>
       </c>
       <c r="G190" t="n">
-        <v>8.980949357504339e-05</v>
+        <v>5.848019435892977e-05</v>
       </c>
       <c r="H190" t="n">
-        <v>3.314048355492693</v>
+        <v>7.568262761703644</v>
       </c>
       <c r="I190" t="n">
-        <v>0.5067095033141374</v>
+        <v>0.1087365927111919</v>
       </c>
       <c r="J190" t="n">
-        <v>0.8285120888731733</v>
+        <v>1.892065690425911</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.00163725223912585</v>
+        <v>0.0009416419643730322</v>
       </c>
       <c r="C191" t="n">
-        <v>0.000405704817673358</v>
+        <v>0.0002007172340402025</v>
       </c>
       <c r="D191" t="n">
-        <v>6.860283156293967e-05</v>
+        <v>0.000122494858541619</v>
       </c>
       <c r="E191" t="n">
-        <v>3.645850847835963e-05</v>
+        <v>2.104791911529774e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>6.701283658265198e-05</v>
+        <v>3.974167684878292e-05</v>
       </c>
       <c r="G191" t="n">
-        <v>8.627637770303088e-05</v>
+        <v>5.054919092628871e-05</v>
       </c>
       <c r="H191" t="n">
-        <v>5.245346783302028</v>
+        <v>8.381306995025708</v>
       </c>
       <c r="I191" t="n">
-        <v>0.2630368526717288</v>
+        <v>0.07856775593732311</v>
       </c>
       <c r="J191" t="n">
-        <v>1.311336695825507</v>
+        <v>2.095326748756427</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001404692900865775</v>
+        <v>0.0007494748804475219</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0003730842443111278</v>
+        <v>0.0001699699751025662</v>
       </c>
       <c r="D192" t="n">
-        <v>4.254490957433495e-05</v>
+        <v>8.773144380691328e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>3.139235144415712e-05</v>
+        <v>1.686681946981717e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>5.749111446501164e-05</v>
+        <v>3.168508908282004e-05</v>
       </c>
       <c r="G192" t="n">
-        <v>7.455630659526088e-05</v>
+        <v>4.055672448268588e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>5.523990193430615</v>
+        <v>8.116249116440898</v>
       </c>
       <c r="I192" t="n">
-        <v>0.237628756634867</v>
+        <v>0.08741146868359712</v>
       </c>
       <c r="J192" t="n">
-        <v>1.380997548357654</v>
+        <v>2.029062279110224</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001117094360278281</v>
+        <v>0.0006324374409487314</v>
       </c>
       <c r="C193" t="n">
-        <v>0.000303673986505172</v>
+        <v>0.0001300672109984553</v>
       </c>
       <c r="D193" t="n">
-        <v>3.356656332181873e-05</v>
+        <v>6.913076927506155e-05</v>
       </c>
       <c r="E193" t="n">
-        <v>2.507553816448124e-05</v>
+        <v>1.446154510996787e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>4.61615567650783e-05</v>
+        <v>2.679536798586771e-05</v>
       </c>
       <c r="G193" t="n">
-        <v>5.98173700714799e-05</v>
+        <v>3.429920282786534e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>4.578268267848528</v>
+        <v>5.761837704027361</v>
       </c>
       <c r="I193" t="n">
-        <v>0.3333675029861771</v>
+        <v>0.2176543752655591</v>
       </c>
       <c r="J193" t="n">
-        <v>1.144567066962132</v>
+        <v>1.44045942600684</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0009392194628076357</v>
+        <v>0.0004651002747750747</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0002278282268569146</v>
+        <v>0.0001173707946787238</v>
       </c>
       <c r="D194" t="n">
-        <v>4.717746831354791e-05</v>
+        <v>3.361552725113573e-05</v>
       </c>
       <c r="E194" t="n">
-        <v>2.13530328955151e-05</v>
+        <v>1.109826244420523e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>3.962180939198525e-05</v>
+        <v>2.039709360495916e-05</v>
       </c>
       <c r="G194" t="n">
-        <v>5.073547241592788e-05</v>
+        <v>2.61119352269397e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>4.352060395315688</v>
+        <v>5.265488648418261</v>
       </c>
       <c r="I194" t="n">
-        <v>0.3604513992307086</v>
+        <v>0.2611250286502723</v>
       </c>
       <c r="J194" t="n">
-        <v>1.088015098828922</v>
+        <v>1.316372162104565</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0006918384340254626</v>
+        <v>0.0004799837591596374</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0002025913759280004</v>
+        <v>9.898256914101346e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>-2.552339821596276e-06</v>
+        <v>6.256599789117117e-05</v>
       </c>
       <c r="E195" t="n">
-        <v>1.630511996103328e-05</v>
+        <v>1.103410625682048e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>3.041489828494556e-05</v>
+        <v>2.069423361921246e-05</v>
       </c>
       <c r="G195" t="n">
-        <v>3.859457967268026e-05</v>
+        <v>2.61789067030901e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6939771705767175</v>
+        <v>6.188930540782474</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9520695767218357</v>
+        <v>0.1854761191952952</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1734942926441794</v>
+        <v>1.547232635195618</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007158487999503061</v>
+        <v>0.000323596511585794</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001862669808150294</v>
+        <v>6.1955772575919e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>2.229123929732677e-05</v>
+        <v>3.875751703888306e-05</v>
       </c>
       <c r="E196" t="n">
-        <v>1.638266824028309e-05</v>
+        <v>7.625879251775777e-06</v>
       </c>
       <c r="F196" t="n">
-        <v>3.025831598427558e-05</v>
+        <v>1.403848442863997e-05</v>
       </c>
       <c r="G196" t="n">
-        <v>3.867686055841292e-05</v>
+        <v>1.800271485441511e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>3.491414102596397</v>
+        <v>5.706469349940521</v>
       </c>
       <c r="I196" t="n">
-        <v>0.4791850494630705</v>
+        <v>0.2221679383363439</v>
       </c>
       <c r="J196" t="n">
-        <v>0.8728535256490992</v>
+        <v>1.42661733748513</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004803466343701605</v>
+        <v>0.0001995063779418909</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001100782888972798</v>
+        <v>3.852644050234161e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>2.388803574205766e-05</v>
+        <v>8.440516255664486e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.122256961688968e-05</v>
+        <v>5.08263341418064e-06</v>
       </c>
       <c r="F197" t="n">
-        <v>2.090065242633458e-05</v>
+        <v>9.143653954970152e-06</v>
       </c>
       <c r="G197" t="n">
-        <v>2.658697143383777e-05</v>
+        <v>1.161645518179972e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>4.187784717638285</v>
+        <v>5.097207024230146</v>
       </c>
       <c r="I197" t="n">
-        <v>0.3811880722979487</v>
+        <v>0.2774680845918389</v>
       </c>
       <c r="J197" t="n">
-        <v>1.046946179409571</v>
+        <v>1.274301756057536</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002975524762834176</v>
+        <v>0.0002016900827205353</v>
       </c>
       <c r="C198" t="n">
-        <v>7.356573408817701e-05</v>
+        <v>3.588143781274166e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.435545843068607e-05</v>
+        <v>1.417751701235869e-05</v>
       </c>
       <c r="E198" t="n">
-        <v>7.4483312617081e-06</v>
+        <v>4.965359194030042e-06</v>
       </c>
       <c r="F198" t="n">
-        <v>1.384292809454708e-05</v>
+        <v>8.941512612878633e-06</v>
       </c>
       <c r="G198" t="n">
-        <v>1.725264196959736e-05</v>
+        <v>1.143793980356034e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>0.3280418958634348</v>
+        <v>2.630354383871318</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9879327974929356</v>
+        <v>0.6214555031238278</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0820104739658587</v>
+        <v>0.6575885959678296</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002975753373956735</v>
+        <v>0.000152128640339068</v>
       </c>
       <c r="C199" t="n">
-        <v>6.326094585143243e-05</v>
+        <v>2.332715077739018e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>1.028747117930292e-05</v>
+        <v>1.889424840601672e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>7.223690591527901e-06</v>
+        <v>3.923327510089129e-06</v>
       </c>
       <c r="F199" t="n">
-        <v>1.358795871414067e-05</v>
+        <v>6.964863820444497e-06</v>
       </c>
       <c r="G199" t="n">
-        <v>1.692853091545547e-05</v>
+        <v>8.837647553404455e-06</v>
       </c>
       <c r="H199" t="n">
-        <v>1.342330059249058</v>
+        <v>4.285186502748607</v>
       </c>
       <c r="I199" t="n">
-        <v>0.8541537861968582</v>
+        <v>0.3687837256691844</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3355825148122644</v>
+        <v>1.071296625687152</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.00022522223210898</v>
+        <v>0.0001443806652850121</v>
       </c>
       <c r="C200" t="n">
-        <v>4.397286233992866e-05</v>
+        <v>2.470814748583509e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.130789605451797e-05</v>
+        <v>1.143958261649508e-05</v>
       </c>
       <c r="E200" t="n">
-        <v>5.705986444414887e-06</v>
+        <v>3.615308381154529e-06</v>
       </c>
       <c r="F200" t="n">
-        <v>1.062080152361617e-05</v>
+        <v>6.455389897275689e-06</v>
       </c>
       <c r="G200" t="n">
-        <v>1.30714200851514e-05</v>
+        <v>8.282335516463631e-06</v>
       </c>
       <c r="H200" t="n">
-        <v>0.5806029394386591</v>
+        <v>2.41152965059677</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9651945601861188</v>
+        <v>0.660544676425793</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1451507348596648</v>
+        <v>0.6028824126491926</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002127500582787214</v>
+        <v>0.0001353433368086314</v>
       </c>
       <c r="C201" t="n">
-        <v>4.149943805244914e-05</v>
+        <v>2.332579514278596e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>1.16954477672883e-05</v>
+        <v>3.521899569302629e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>5.240188296879685e-06</v>
+        <v>3.40486030946515e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>9.930061819904532e-06</v>
+        <v>6.068629746656149e-06</v>
       </c>
       <c r="G201" t="n">
-        <v>1.229448683928524e-05</v>
+        <v>7.742327889026921e-06</v>
       </c>
       <c r="H201" t="n">
-        <v>2.350388350523255</v>
+        <v>3.507727928063415</v>
       </c>
       <c r="I201" t="n">
-        <v>0.6716108229583224</v>
+        <v>0.4767042693679959</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5875970876308136</v>
+        <v>0.8769319820158538</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002004725126767825</v>
+        <v>0.0002271618673591836</v>
       </c>
       <c r="C202" t="n">
-        <v>4.034642239165156e-05</v>
+        <v>3.970196613031119e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>-4.208887966138401e-06</v>
+        <v>1.622080534861793e-05</v>
       </c>
       <c r="E202" t="n">
-        <v>4.961243807481604e-06</v>
+        <v>5.786552361368406e-06</v>
       </c>
       <c r="F202" t="n">
-        <v>9.282216830034879e-06</v>
+        <v>1.047695345661749e-05</v>
       </c>
       <c r="G202" t="n">
-        <v>1.146823566238787e-05</v>
+        <v>1.327083452737739e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.7283509738270759</v>
+        <v>5.255930653203277</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9477871950960637</v>
+        <v>0.2620307668054148</v>
       </c>
       <c r="J202" t="n">
-        <v>0.182087743456769</v>
+        <v>1.313982663300819</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003378639375212099</v>
+        <v>0.0001759104720207768</v>
       </c>
       <c r="C203" t="n">
-        <v>8.308347028291219e-05</v>
+        <v>3.476097557685525e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>-9.718695068483541e-06</v>
+        <v>1.430072497137121e-05</v>
       </c>
       <c r="E203" t="n">
-        <v>8.479881380065978e-06</v>
+        <v>4.120987387064062e-06</v>
       </c>
       <c r="F203" t="n">
-        <v>1.57399076681294e-05</v>
+        <v>7.564844217406225e-06</v>
       </c>
       <c r="G203" t="n">
-        <v>1.963916843239914e-05</v>
+        <v>9.693487175863675e-06</v>
       </c>
       <c r="H203" t="n">
-        <v>0.7406950005913006</v>
+        <v>5.514465502568375</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9462171954645793</v>
+        <v>0.2384608733278347</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1851737501478251</v>
+        <v>1.378616375642094</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002605022095941833</v>
+        <v>0.0002766682990923271</v>
       </c>
       <c r="C204" t="n">
-        <v>6.236347991392801e-05</v>
+        <v>4.777460295173557e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>5.064677756900344e-06</v>
+        <v>2.412575492206166e-05</v>
       </c>
       <c r="E204" t="n">
-        <v>6.068441838916456e-06</v>
+        <v>6.967085187918751e-06</v>
       </c>
       <c r="F204" t="n">
-        <v>1.127257878609161e-05</v>
+        <v>1.25900043027674e-05</v>
       </c>
       <c r="G204" t="n">
-        <v>1.433572160961318e-05</v>
+        <v>1.60334047500888e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>3.127396555893351</v>
+        <v>2.612344583359667</v>
       </c>
       <c r="I204" t="n">
-        <v>0.536736806902292</v>
+        <v>0.6246378993967302</v>
       </c>
       <c r="J204" t="n">
-        <v>0.7818491389733379</v>
+        <v>0.6530861458399169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004101199024732014</v>
+        <v>0.0002628376208242592</v>
       </c>
       <c r="C205" t="n">
-        <v>9.210486042794756e-05</v>
+        <v>4.712884047888187e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>3.615551827097362e-06</v>
+        <v>1.859048925512347e-05</v>
       </c>
       <c r="E205" t="n">
-        <v>1.018704215960465e-05</v>
+        <v>6.619302795325116e-06</v>
       </c>
       <c r="F205" t="n">
-        <v>1.889518290976976e-05</v>
+        <v>1.194068306327658e-05</v>
       </c>
       <c r="G205" t="n">
-        <v>2.366290631888839e-05</v>
+        <v>1.522073865657064e-05</v>
       </c>
       <c r="H205" t="n">
-        <v>0.7600283103701311</v>
+        <v>2.99568606015193</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9437250662003474</v>
+        <v>0.5585475872803929</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1900070775925328</v>
+        <v>0.7489215150379824</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004349356440476023</v>
+        <v>0.0002523913228537872</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001059826577536449</v>
+        <v>4.974702712956376e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>1.935396314507677e-05</v>
+        <v>1.503999789856668e-05</v>
       </c>
       <c r="E206" t="n">
-        <v>1.001075067790772e-05</v>
+        <v>6.436796949769317e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>1.860481183937789e-05</v>
+        <v>1.156708958046814e-05</v>
       </c>
       <c r="G206" t="n">
-        <v>2.370776921714964e-05</v>
+        <v>1.488836992072012e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>2.949837245593819</v>
+        <v>4.930375115668304</v>
       </c>
       <c r="I206" t="n">
-        <v>0.5662548104218115</v>
+        <v>0.2945163388650948</v>
       </c>
       <c r="J206" t="n">
-        <v>0.7374593113984547</v>
+        <v>1.232593778917076</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003893478539536026</v>
+        <v>0.0002499664822982917</v>
       </c>
       <c r="C207" t="n">
-        <v>8.684922856218731e-05</v>
+        <v>5.347573673442012e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1.505509549830884e-06</v>
+        <v>1.448823119193577e-05</v>
       </c>
       <c r="E207" t="n">
-        <v>9.671217687678792e-06</v>
+        <v>6.347940908233775e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>1.796900083954965e-05</v>
+        <v>1.138477727065649e-05</v>
       </c>
       <c r="G207" t="n">
-        <v>2.247090377809421e-05</v>
+        <v>1.477924861382811e-05</v>
       </c>
       <c r="H207" t="n">
-        <v>0.8635641478924685</v>
+        <v>5.480273095240388</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9297289378584712</v>
+        <v>0.2414689400473121</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2158910369731171</v>
+        <v>1.370068273810097</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003763170438873466</v>
+        <v>0.0002434515212549926</v>
       </c>
       <c r="C208" t="n">
-        <v>8.711167209819368e-05</v>
+        <v>4.09422096102841e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>-2.448845063677076e-06</v>
+        <v>1.947760292723424e-05</v>
       </c>
       <c r="E208" t="n">
-        <v>9.434129937560121e-06</v>
+        <v>6.252251736096539e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>1.751204852974199e-05</v>
+        <v>1.129158830681487e-05</v>
       </c>
       <c r="G208" t="n">
-        <v>2.207343901813053e-05</v>
+        <v>1.433568536744192e-05</v>
       </c>
       <c r="H208" t="n">
-        <v>2.247659852989218</v>
+        <v>3.403898168734116</v>
       </c>
       <c r="I208" t="n">
-        <v>0.6903138714969709</v>
+        <v>0.4926404463890927</v>
       </c>
       <c r="J208" t="n">
-        <v>0.5619149632473044</v>
+        <v>0.850974542183529</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003696317838765457</v>
+        <v>0.0002309700224348668</v>
       </c>
       <c r="C209" t="n">
-        <v>9.131154228059023e-05</v>
+        <v>4.240936618947485e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>4.455860814342764e-06</v>
+        <v>1.22570933136733e-05</v>
       </c>
       <c r="E209" t="n">
-        <v>9.247696362534838e-06</v>
+        <v>5.5137817293881e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>1.724727471856761e-05</v>
+        <v>1.008409766413037e-05</v>
       </c>
       <c r="G209" t="n">
-        <v>2.182089958275937e-05</v>
+        <v>1.272458006041952e-05</v>
       </c>
       <c r="H209" t="n">
-        <v>2.972058214930082</v>
+        <v>4.819941141447</v>
       </c>
       <c r="I209" t="n">
-        <v>0.5625122283273982</v>
+        <v>0.306276524656127</v>
       </c>
       <c r="J209" t="n">
-        <v>0.7430145537325206</v>
+        <v>1.20498528536175</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003593579722549398</v>
+        <v>0.0002342281548205718</v>
       </c>
       <c r="C210" t="n">
-        <v>8.448227866195986e-05</v>
+        <v>3.740656704751016e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>-5.561402730161296e-06</v>
+        <v>1.933393340137362e-05</v>
       </c>
       <c r="E210" t="n">
-        <v>9.126026195937238e-06</v>
+        <v>5.905212740884756e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>1.685386306956293e-05</v>
+        <v>1.069099640410809e-05</v>
       </c>
       <c r="G210" t="n">
-        <v>2.110079087177955e-05</v>
+        <v>1.352452220384383e-05</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3903922838503225</v>
+        <v>2.28302512113112</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9832559321244313</v>
+        <v>0.6838612880338254</v>
       </c>
       <c r="J210" t="n">
-        <v>0.09759807096258064</v>
+        <v>0.57075628028278</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.000343689895294934</v>
+        <v>0.0001380192483883197</v>
       </c>
       <c r="C211" t="n">
-        <v>7.931368480533567e-05</v>
+        <v>2.835397715168947e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>-9.330253017388285e-06</v>
+        <v>1.111642525091587e-05</v>
       </c>
       <c r="E211" t="n">
-        <v>8.127651575091987e-06</v>
+        <v>3.359864740650542e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.493653419277865e-05</v>
+        <v>6.11933953703887e-06</v>
       </c>
       <c r="G211" t="n">
-        <v>1.877807841683644e-05</v>
+        <v>7.849466223689987e-06</v>
       </c>
       <c r="H211" t="n">
-        <v>0.4467448560972347</v>
+        <v>4.696430018015614</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9784739668822318</v>
+        <v>0.3198869463366667</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1116862140243087</v>
+        <v>1.174107504503904</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003521344618475448</v>
+        <v>6.049833045594503e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>8.592425961469446e-05</v>
+        <v>9.730321792817426e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>1.470553628656643e-05</v>
+        <v>4.806507028715042e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>8.23164704441179e-06</v>
+        <v>1.77828878752633e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>1.526259409118842e-05</v>
+        <v>3.134480229180882e-06</v>
       </c>
       <c r="G212" t="n">
-        <v>1.947418407671032e-05</v>
+        <v>3.987348302766706e-06</v>
       </c>
       <c r="H212" t="n">
-        <v>4.829614282922842</v>
+        <v>3.402700250404435</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3052310879088678</v>
+        <v>0.4928263339449479</v>
       </c>
       <c r="J212" t="n">
-        <v>1.20740357073071</v>
+        <v>0.8506750626011088</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003499265250628368</v>
+        <v>3.908058341291929e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>6.970627722396278e-05</v>
+        <v>3.376114394816143e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>7.570711002970133e-06</v>
+        <v>8.750212470241402e-08</v>
       </c>
       <c r="E213" t="n">
-        <v>8.685723571028181e-06</v>
+        <v>1.288567032569191e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>1.613718864933826e-05</v>
+        <v>2.178490447754449e-06</v>
       </c>
       <c r="G213" t="n">
-        <v>2.00372631982867e-05</v>
+        <v>2.802205227423736e-06</v>
       </c>
       <c r="H213" t="n">
-        <v>0.2076333885931121</v>
+        <v>2.137895454237853</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9949698955575547</v>
+        <v>0.7104138485480638</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05190834714827804</v>
+        <v>0.5344738635594631</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003748119439114418</v>
+        <v>5.452532710797551e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.539680225398767e-05</v>
+        <v>9.070578468654382e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>1.206385818182788e-05</v>
+        <v>5.093202100859147e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>8.712408393098862e-06</v>
+        <v>1.511979760704522e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>1.605301000845976e-05</v>
+        <v>2.668190308077349e-06</v>
       </c>
       <c r="G214" t="n">
-        <v>2.055318724156228e-05</v>
+        <v>3.4427002380784e-06</v>
       </c>
       <c r="H214" t="n">
-        <v>5.050082326276989</v>
+        <v>2.904290225873204</v>
       </c>
       <c r="I214" t="n">
-        <v>0.2821972316617957</v>
+        <v>0.573967838250323</v>
       </c>
       <c r="J214" t="n">
-        <v>1.262520581569247</v>
+        <v>0.726072556468301</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003041012217020919</v>
+        <v>3.415019850698269e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>7.648559983340732e-05</v>
+        <v>3.319284733496177e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>1.218471322835289e-05</v>
+        <v>2.802735323585846e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>6.99127795594672e-06</v>
+        <v>1.082075747047993e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>1.29210341361139e-05</v>
+        <v>1.876856262575044e-06</v>
       </c>
       <c r="G215" t="n">
-        <v>1.656363082582778e-05</v>
+        <v>2.393755770082681e-06</v>
       </c>
       <c r="H215" t="n">
-        <v>3.485885488536484</v>
+        <v>4.571417306832096</v>
       </c>
       <c r="I215" t="n">
-        <v>0.4800277299935333</v>
+        <v>0.3341630268589853</v>
       </c>
       <c r="J215" t="n">
-        <v>0.8714713721341211</v>
+        <v>1.142854326708024</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002054412748156858</v>
+        <v>2.663972797194945e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>4.991844763682595e-05</v>
+        <v>2.819037255775953e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>2.612169909957992e-06</v>
+        <v>1.697622841501648e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>4.937302744467754e-06</v>
+        <v>9.207805942691743e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>9.177154384231878e-06</v>
+        <v>1.570612342992688e-06</v>
       </c>
       <c r="G216" t="n">
-        <v>1.160763900882148e-05</v>
+        <v>2.020783174897567e-06</v>
       </c>
       <c r="H216" t="n">
-        <v>1.484024856297189</v>
+        <v>0.6568852665643282</v>
       </c>
       <c r="I216" t="n">
-        <v>0.8294674460996962</v>
+        <v>0.9565374577836944</v>
       </c>
       <c r="J216" t="n">
-        <v>0.3710062140742973</v>
+        <v>0.1642213166410821</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>8.961646078340224e-05</v>
+        <v>2.327815611840813e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>2.062433303895302e-05</v>
+        <v>1.45347954926678e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>-1.92542779173821e-06</v>
+        <v>-5.807754219282373e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>2.57137431639651e-06</v>
+        <v>8.11300161171087e-07</v>
       </c>
       <c r="F217" t="n">
-        <v>4.838188021160653e-06</v>
+        <v>1.333561608524497e-06</v>
       </c>
       <c r="G217" t="n">
-        <v>5.89915563732367e-06</v>
+        <v>1.700496152415011e-06</v>
       </c>
       <c r="H217" t="n">
-        <v>0.7082255059878462</v>
+        <v>1.602523550830442</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9503106878869263</v>
+        <v>0.8083385022625652</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1770563764969615</v>
+        <v>0.4006308877076104</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>5.778933415150327e-05</v>
+        <v>2.147164096995571e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>8.06130872077244e-06</v>
+        <v>4.088453933394426e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>-3.511382926965745e-06</v>
+        <v>2.010444212987807e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>1.834941646528474e-06</v>
+        <v>7.979713419754361e-07</v>
       </c>
       <c r="F218" t="n">
-        <v>3.463845066725605e-06</v>
+        <v>1.34591378387265e-06</v>
       </c>
       <c r="G218" t="n">
-        <v>4.155622710878289e-06</v>
+        <v>1.767869514927165e-06</v>
       </c>
       <c r="H218" t="n">
-        <v>0.6745262921624304</v>
+        <v>8.120422434734298</v>
       </c>
       <c r="I218" t="n">
-        <v>0.9544327929660912</v>
+        <v>0.08726524613381409</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1686315730406076</v>
+        <v>2.030105608683574</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>8.128432881899775e-05</v>
+        <v>2.08598680768509e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.63798893980238e-05</v>
+        <v>2.295734612233444e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>2.956937255019855e-06</v>
+        <v>3.178942810955835e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>2.196424320818958e-06</v>
+        <v>7.864597343684813e-07</v>
       </c>
       <c r="F219" t="n">
-        <v>4.173033426762479e-06</v>
+        <v>1.327367390561608e-06</v>
       </c>
       <c r="G219" t="n">
-        <v>5.143279666336038e-06</v>
+        <v>1.691224075712582e-06</v>
       </c>
       <c r="H219" t="n">
-        <v>1.71101639592566</v>
+        <v>4.748134868551835</v>
       </c>
       <c r="I219" t="n">
-        <v>0.7887155220212795</v>
+        <v>0.3141299692500977</v>
       </c>
       <c r="J219" t="n">
-        <v>0.427754098981415</v>
+        <v>1.187033717137959</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>5.083292463276271e-05</v>
+        <v>2.574043296857423e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>9.032087913448986e-06</v>
+        <v>1.21814108432688e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.63184024079125e-06</v>
+        <v>-6.470448347089934e-08</v>
       </c>
       <c r="E220" t="n">
-        <v>1.560336159748515e-06</v>
+        <v>9.20685332665641e-07</v>
       </c>
       <c r="F220" t="n">
-        <v>2.937743455200533e-06</v>
+        <v>1.529017766567864e-06</v>
       </c>
       <c r="G220" t="n">
-        <v>3.553410631383032e-06</v>
+        <v>1.970124858170311e-06</v>
       </c>
       <c r="H220" t="n">
-        <v>3.001649311186973</v>
+        <v>1.889149038156134</v>
       </c>
       <c r="I220" t="n">
-        <v>0.5575494300148315</v>
+        <v>0.7561380435399729</v>
       </c>
       <c r="J220" t="n">
-        <v>0.7504123277967432</v>
+        <v>0.4722872595390335</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.942199037399993e-05</v>
+        <v>2.559400661006807e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>4.223274752767141e-06</v>
+        <v>2.458839942190764e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>2.776057696368769e-06</v>
+        <v>1.79821797317192e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>1.316433757518568e-06</v>
+        <v>9.388251464084269e-07</v>
       </c>
       <c r="F221" t="n">
-        <v>2.541181250954999e-06</v>
+        <v>1.574969041328113e-06</v>
       </c>
       <c r="G221" t="n">
-        <v>3.022720631049427e-06</v>
+        <v>2.029941344537498e-06</v>
       </c>
       <c r="H221" t="n">
-        <v>0.6724129243524762</v>
+        <v>0.6272053389297646</v>
       </c>
       <c r="I221" t="n">
-        <v>0.9546868849310377</v>
+        <v>0.959993104291183</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1681032310881191</v>
+        <v>0.1568013347324411</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>3.418860761991953e-05</v>
+        <v>2.884235041808614e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>3.345180195933356e-06</v>
+        <v>4.857226888552018e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>-2.2523170579169e-06</v>
+        <v>5.774899975124321e-07</v>
       </c>
       <c r="E222" t="n">
-        <v>1.145815421824849e-06</v>
+        <v>8.962595007224503e-07</v>
       </c>
       <c r="F222" t="n">
-        <v>2.241314603779677e-06</v>
+        <v>1.511547901594177e-06</v>
       </c>
       <c r="G222" t="n">
-        <v>2.562440527801136e-06</v>
+        <v>1.974401248891722e-06</v>
       </c>
       <c r="H222" t="n">
-        <v>1.163379484458666</v>
+        <v>1.846370532038806</v>
       </c>
       <c r="I222" t="n">
-        <v>0.8840903554280219</v>
+        <v>0.7639885614363912</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2908448711146665</v>
+        <v>0.4615926330097015</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>3.198846375932816e-05</v>
+        <v>3.3164831435499e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>1.371278867633363e-06</v>
+        <v>4.358036421369939e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>2.341261970951053e-06</v>
+        <v>9.03030841448659e-07</v>
       </c>
       <c r="E223" t="n">
-        <v>1.135528694011622e-06</v>
+        <v>1.040185270062815e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>2.173888036573901e-06</v>
+        <v>1.761853070267536e-06</v>
       </c>
       <c r="G223" t="n">
-        <v>2.626512596553817e-06</v>
+        <v>2.298457090987234e-06</v>
       </c>
       <c r="H223" t="n">
-        <v>6.672850879215427</v>
+        <v>1.132448317363252</v>
       </c>
       <c r="I223" t="n">
-        <v>0.1542200096055017</v>
+        <v>0.8890903385752584</v>
       </c>
       <c r="J223" t="n">
-        <v>1.668212719803857</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.112519135493377e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.631447697843313e-07</v>
-      </c>
-      <c r="D224" t="n">
-        <v>3.983852465121969e-06</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.123989665768626e-06</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2.189249585501174e-06</v>
-      </c>
-      <c r="G224" t="n">
-        <v>2.542620100351002e-06</v>
-      </c>
-      <c r="H224" t="n">
-        <v>5.286222551599463</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0.2591694424750173</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1.321555637899866</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.763449866050267e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.373317161307334e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>6.416888788119817e-07</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.297839969319137e-06</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2.527538803712331e-06</v>
-      </c>
-      <c r="G225" t="n">
-        <v>2.94931398875711e-06</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1.325512060434705</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0.8570324080642104</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.3313780151086764</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.791929698129847e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>3.978774693323507e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.906042408146742e-06</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.336799885374983e-06</v>
-      </c>
-      <c r="F226" t="n">
-        <v>2.61162269950249e-06</v>
-      </c>
-      <c r="G226" t="n">
-        <v>3.033315196040057e-06</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0.5465922979328347</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0.9688095610553427</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.1366480744832087</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.218035233028199e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.628087467004168e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.391231818693349e-06</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.263879787137819e-06</v>
-      </c>
-      <c r="F227" t="n">
-        <v>2.486891520098862e-06</v>
-      </c>
-      <c r="G227" t="n">
-        <v>2.95135073927146e-06</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2.503085481453715</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0.6440833750305428</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0.6257713703634288</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.875570104125901e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.244853834463957e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.592382313898117e-06</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1.478405022939629e-06</v>
-      </c>
-      <c r="F228" t="n">
-        <v>2.85030710033983e-06</v>
-      </c>
-      <c r="G228" t="n">
-        <v>3.422658844642209e-06</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1.015493538956375</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0.90743763338938</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.2538733847390937</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.893526238816205e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.901551825204788e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.655370187346417e-06</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1.655708555794322e-06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3.121886344449403e-06</v>
-      </c>
-      <c r="G229" t="n">
-        <v>3.829052966041538e-06</v>
-      </c>
-      <c r="H229" t="n">
-        <v>8.298465387130758</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0.08123695849138676</v>
-      </c>
-      <c r="J229" t="n">
-        <v>2.074616346782689</v>
+        <v>0.2831120793408131</v>
       </c>
     </row>
   </sheetData>
